--- a/6月30日鱉蛋徑-重量.xlsx
+++ b/6月30日鱉蛋徑-重量.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18229"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OH_Bro\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\turtle\turtle\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,7 +16,7 @@
     <sheet name="工作表2" sheetId="2" r:id="rId2"/>
     <sheet name="工作表3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -745,7 +745,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -779,7 +779,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -789,6 +789,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1179,7 +1185,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1306,6 +1312,18 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -1399,6 +1417,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1434,6 +1469,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1612,8 +1664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG537"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A466" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="S520" sqref="S520"/>
+    <sheetView tabSelected="1" topLeftCell="K513" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="T519" sqref="T519:U531"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -13781,130 +13833,130 @@
     </row>
     <row r="317" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A317" s="7"/>
-      <c r="B317" s="1">
+      <c r="B317" s="42">
         <v>20.09</v>
       </c>
-      <c r="C317" s="1">
+      <c r="C317" s="42">
         <v>2.36</v>
       </c>
-      <c r="D317" s="1">
+      <c r="D317" s="42">
         <v>22.02</v>
       </c>
-      <c r="E317" s="2">
+      <c r="E317" s="43">
         <v>4.09</v>
       </c>
     </row>
     <row r="318" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A318" s="7"/>
-      <c r="B318" s="1">
+      <c r="B318" s="42">
         <v>19.12</v>
       </c>
-      <c r="C318" s="1">
+      <c r="C318" s="42">
         <v>2.8</v>
       </c>
-      <c r="D318" s="1">
+      <c r="D318" s="42">
         <v>21.08</v>
       </c>
-      <c r="E318" s="2">
+      <c r="E318" s="43">
         <v>4.12</v>
       </c>
     </row>
     <row r="319" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A319" s="7"/>
-      <c r="B319" s="1">
+      <c r="B319" s="42">
         <v>20.85</v>
       </c>
-      <c r="C319" s="1">
+      <c r="C319" s="42">
         <v>3.75</v>
       </c>
-      <c r="D319" s="1">
+      <c r="D319" s="42">
         <v>21.04</v>
       </c>
-      <c r="E319" s="2">
+      <c r="E319" s="43">
         <v>4.22</v>
       </c>
     </row>
     <row r="320" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A320" s="7"/>
-      <c r="B320" s="1">
+      <c r="B320" s="42">
         <v>20</v>
       </c>
-      <c r="C320" s="1">
+      <c r="C320" s="42">
         <v>2.92</v>
       </c>
-      <c r="D320" s="1">
+      <c r="D320" s="42">
         <v>21.02</v>
       </c>
-      <c r="E320" s="2">
+      <c r="E320" s="43">
         <v>4.83</v>
       </c>
     </row>
     <row r="321" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A321" s="7"/>
-      <c r="B321" s="1">
+      <c r="B321" s="42">
         <v>19.09</v>
       </c>
-      <c r="C321" s="1">
+      <c r="C321" s="42">
         <v>3.62</v>
       </c>
-      <c r="D321" s="1">
+      <c r="D321" s="42">
         <v>21.43</v>
       </c>
-      <c r="E321" s="2">
+      <c r="E321" s="43">
         <v>4.62</v>
       </c>
     </row>
     <row r="322" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A322" s="7"/>
-      <c r="B322" s="1">
+      <c r="B322" s="42">
         <v>20.96</v>
       </c>
-      <c r="C322" s="1">
+      <c r="C322" s="42">
         <v>1.45</v>
       </c>
-      <c r="D322" s="1">
+      <c r="D322" s="42">
         <v>20.16</v>
       </c>
-      <c r="E322" s="2">
+      <c r="E322" s="43">
         <v>3.81</v>
       </c>
     </row>
     <row r="323" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A323" s="7"/>
-      <c r="B323" s="1">
+      <c r="B323" s="42">
         <v>19.07</v>
       </c>
-      <c r="C323" s="1">
+      <c r="C323" s="42">
         <v>2.9</v>
       </c>
-      <c r="D323" s="1">
+      <c r="D323" s="42">
         <v>22.16</v>
       </c>
-      <c r="E323" s="2">
+      <c r="E323" s="43">
         <v>4.41</v>
       </c>
     </row>
     <row r="324" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A324" s="7"/>
-      <c r="B324" s="1">
+      <c r="B324" s="42">
         <v>19.09</v>
       </c>
-      <c r="C324" s="1">
+      <c r="C324" s="42">
         <v>1.56</v>
       </c>
-      <c r="D324" s="1">
+      <c r="D324" s="42">
         <v>19.48</v>
       </c>
-      <c r="E324" s="2">
+      <c r="E324" s="43">
         <v>3.36</v>
       </c>
     </row>
     <row r="325" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A325" s="7"/>
-      <c r="B325" s="1">
+      <c r="B325" s="42">
         <v>20.46</v>
       </c>
-      <c r="C325" s="1">
+      <c r="C325" s="42">
         <v>2.93</v>
       </c>
       <c r="D325" s="1"/>
@@ -13912,10 +13964,10 @@
     </row>
     <row r="326" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A326" s="7"/>
-      <c r="B326" s="1">
+      <c r="B326" s="42">
         <v>20.53</v>
       </c>
-      <c r="C326" s="1">
+      <c r="C326" s="42">
         <v>2.44</v>
       </c>
       <c r="D326" s="1"/>
@@ -13998,184 +14050,184 @@
     </row>
     <row r="332" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A332" s="7"/>
-      <c r="B332" s="1">
+      <c r="B332" s="42">
         <v>20.03</v>
       </c>
-      <c r="C332" s="1">
+      <c r="C332" s="42">
         <v>4.17</v>
       </c>
-      <c r="D332" s="1">
+      <c r="D332" s="42">
         <v>20.25</v>
       </c>
-      <c r="E332" s="1">
+      <c r="E332" s="42">
         <v>2.8</v>
       </c>
-      <c r="F332" s="1">
+      <c r="F332" s="42">
         <v>19.420000000000002</v>
       </c>
-      <c r="G332" s="1">
+      <c r="G332" s="42">
         <v>2.96</v>
       </c>
-      <c r="H332" s="1">
+      <c r="H332" s="42">
         <v>21.9</v>
       </c>
-      <c r="I332" s="2">
+      <c r="I332" s="43">
         <v>3.19</v>
       </c>
     </row>
     <row r="333" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A333" s="7"/>
-      <c r="B333" s="1">
+      <c r="B333" s="42">
         <v>20.87</v>
       </c>
-      <c r="C333" s="1">
+      <c r="C333" s="42">
         <v>4.3099999999999996</v>
       </c>
-      <c r="D333" s="1">
+      <c r="D333" s="42">
         <v>19.82</v>
       </c>
-      <c r="E333" s="1">
+      <c r="E333" s="42">
         <v>2.2999999999999998</v>
       </c>
-      <c r="F333" s="1">
+      <c r="F333" s="42">
         <v>19.05</v>
       </c>
-      <c r="G333" s="1">
+      <c r="G333" s="42">
         <v>3.06</v>
       </c>
-      <c r="H333" s="1">
+      <c r="H333" s="42">
         <v>20.09</v>
       </c>
-      <c r="I333" s="2">
+      <c r="I333" s="43">
         <v>3.13</v>
       </c>
     </row>
     <row r="334" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A334" s="7"/>
-      <c r="B334" s="1">
+      <c r="B334" s="42">
         <v>21.75</v>
       </c>
-      <c r="C334" s="1">
+      <c r="C334" s="42">
         <v>4.43</v>
       </c>
-      <c r="D334" s="1">
+      <c r="D334" s="42">
         <v>20.56</v>
       </c>
-      <c r="E334" s="1">
+      <c r="E334" s="42">
         <v>2.7</v>
       </c>
-      <c r="F334" s="1">
+      <c r="F334" s="42">
         <v>20.04</v>
       </c>
-      <c r="G334" s="1">
+      <c r="G334" s="42">
         <v>3.13</v>
       </c>
-      <c r="H334" s="1">
+      <c r="H334" s="42">
         <v>20.38</v>
       </c>
-      <c r="I334" s="2">
+      <c r="I334" s="43">
         <v>2.74</v>
       </c>
     </row>
     <row r="335" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A335" s="7"/>
-      <c r="B335" s="1">
+      <c r="B335" s="42">
         <v>20.53</v>
       </c>
-      <c r="C335" s="1">
+      <c r="C335" s="42">
         <v>3.96</v>
       </c>
-      <c r="D335" s="1">
+      <c r="D335" s="42">
         <v>20.22</v>
       </c>
-      <c r="E335" s="1">
+      <c r="E335" s="42">
         <v>2.79</v>
       </c>
-      <c r="F335" s="1">
+      <c r="F335" s="42">
         <v>18.52</v>
       </c>
-      <c r="G335" s="1">
+      <c r="G335" s="42">
         <v>2.67</v>
       </c>
-      <c r="H335" s="1">
+      <c r="H335" s="42">
         <v>20.440000000000001</v>
       </c>
-      <c r="I335" s="2">
+      <c r="I335" s="43">
         <v>3.16</v>
       </c>
     </row>
     <row r="336" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A336" s="7"/>
-      <c r="B336" s="1">
+      <c r="B336" s="42">
         <v>20.36</v>
       </c>
-      <c r="C336" s="1">
+      <c r="C336" s="42">
         <v>4.1100000000000003</v>
       </c>
-      <c r="D336" s="1">
+      <c r="D336" s="42">
         <v>21.31</v>
       </c>
-      <c r="E336" s="1">
+      <c r="E336" s="42">
         <v>3.09</v>
       </c>
-      <c r="F336" s="1">
+      <c r="F336" s="42">
         <v>20.010000000000002</v>
       </c>
-      <c r="G336" s="1">
+      <c r="G336" s="42">
         <v>2.75</v>
       </c>
-      <c r="H336" s="1">
+      <c r="H336" s="42">
         <v>19</v>
       </c>
-      <c r="I336" s="2">
+      <c r="I336" s="43">
         <v>2.57</v>
       </c>
     </row>
     <row r="337" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A337" s="7"/>
-      <c r="B337" s="1">
+      <c r="B337" s="42">
         <v>19.71</v>
       </c>
-      <c r="C337" s="1">
+      <c r="C337" s="42">
         <v>3.55</v>
       </c>
-      <c r="D337" s="1">
+      <c r="D337" s="42">
         <v>21.15</v>
       </c>
-      <c r="E337" s="1">
+      <c r="E337" s="42">
         <v>3.18</v>
       </c>
-      <c r="F337" s="1">
+      <c r="F337" s="42">
         <v>19.95</v>
       </c>
-      <c r="G337" s="1">
+      <c r="G337" s="42">
         <v>2.86</v>
       </c>
-      <c r="H337" s="1">
+      <c r="H337" s="42">
         <v>19.82</v>
       </c>
-      <c r="I337" s="2">
+      <c r="I337" s="43">
         <v>2.0499999999999998</v>
       </c>
     </row>
     <row r="338" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A338" s="7"/>
-      <c r="B338" s="1">
+      <c r="B338" s="42">
         <v>21.35</v>
       </c>
-      <c r="C338" s="1">
+      <c r="C338" s="42">
         <v>4.25</v>
       </c>
-      <c r="D338" s="1">
+      <c r="D338" s="42">
         <v>21.13</v>
       </c>
-      <c r="E338" s="1">
+      <c r="E338" s="42">
         <v>3.22</v>
       </c>
-      <c r="F338" s="1">
+      <c r="F338" s="42">
         <v>19.07</v>
       </c>
-      <c r="G338" s="1">
+      <c r="G338" s="42">
         <v>2.95</v>
       </c>
       <c r="H338" s="1"/>
@@ -14183,22 +14235,22 @@
     </row>
     <row r="339" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A339" s="7"/>
-      <c r="B339" s="1">
+      <c r="B339" s="42">
         <v>19.02</v>
       </c>
-      <c r="C339" s="1">
+      <c r="C339" s="42">
         <v>3.28</v>
       </c>
-      <c r="D339" s="1">
+      <c r="D339" s="42">
         <v>20.420000000000002</v>
       </c>
-      <c r="E339" s="1">
+      <c r="E339" s="42">
         <v>3.07</v>
       </c>
-      <c r="F339" s="1">
+      <c r="F339" s="42">
         <v>17.850000000000001</v>
       </c>
-      <c r="G339" s="1">
+      <c r="G339" s="42">
         <v>2.42</v>
       </c>
       <c r="H339" s="1"/>
@@ -14206,22 +14258,22 @@
     </row>
     <row r="340" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A340" s="7"/>
-      <c r="B340" s="1">
+      <c r="B340" s="42">
         <v>21.14</v>
       </c>
-      <c r="C340" s="1">
+      <c r="C340" s="42">
         <v>4.62</v>
       </c>
-      <c r="D340" s="1">
+      <c r="D340" s="42">
         <v>20.13</v>
       </c>
-      <c r="E340" s="1">
+      <c r="E340" s="42">
         <v>2.7</v>
       </c>
-      <c r="F340" s="1">
+      <c r="F340" s="42">
         <v>18.95</v>
       </c>
-      <c r="G340" s="1">
+      <c r="G340" s="42">
         <v>2.79</v>
       </c>
       <c r="H340" s="1"/>
@@ -14229,22 +14281,22 @@
     </row>
     <row r="341" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A341" s="7"/>
-      <c r="B341" s="1">
+      <c r="B341" s="42">
         <v>19.649999999999999</v>
       </c>
-      <c r="C341" s="1">
+      <c r="C341" s="42">
         <v>3.48</v>
       </c>
-      <c r="D341" s="1">
+      <c r="D341" s="42">
         <v>20.39</v>
       </c>
-      <c r="E341" s="1">
+      <c r="E341" s="42">
         <v>2.95</v>
       </c>
-      <c r="F341" s="1">
+      <c r="F341" s="42">
         <v>19.190000000000001</v>
       </c>
-      <c r="G341" s="1">
+      <c r="G341" s="42">
         <v>2.62</v>
       </c>
       <c r="H341" s="1"/>
@@ -14252,22 +14304,22 @@
     </row>
     <row r="342" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A342" s="7"/>
-      <c r="B342" s="1">
+      <c r="B342" s="42">
         <v>20.170000000000002</v>
       </c>
-      <c r="C342" s="1">
+      <c r="C342" s="42">
         <v>4.1100000000000003</v>
       </c>
-      <c r="D342" s="1">
+      <c r="D342" s="42">
         <v>20.96</v>
       </c>
-      <c r="E342" s="1">
+      <c r="E342" s="42">
         <v>3.23</v>
       </c>
-      <c r="F342" s="1">
+      <c r="F342" s="42">
         <v>19.399999999999999</v>
       </c>
-      <c r="G342" s="1">
+      <c r="G342" s="42">
         <v>2.88</v>
       </c>
       <c r="H342" s="1"/>
@@ -14277,16 +14329,16 @@
       <c r="A343" s="7"/>
       <c r="B343" s="1"/>
       <c r="C343" s="1"/>
-      <c r="D343" s="1">
+      <c r="D343" s="42">
         <v>19.579999999999998</v>
       </c>
-      <c r="E343" s="1">
+      <c r="E343" s="42">
         <v>2.93</v>
       </c>
-      <c r="F343" s="1">
+      <c r="F343" s="42">
         <v>19.61</v>
       </c>
-      <c r="G343" s="1">
+      <c r="G343" s="42">
         <v>2.85</v>
       </c>
       <c r="H343" s="1"/>
@@ -14296,10 +14348,10 @@
       <c r="A344" s="7"/>
       <c r="B344" s="1"/>
       <c r="C344" s="1"/>
-      <c r="D344" s="1">
+      <c r="D344" s="42">
         <v>18.940000000000001</v>
       </c>
-      <c r="E344" s="1">
+      <c r="E344" s="42">
         <v>1.43</v>
       </c>
       <c r="F344" s="1"/>
@@ -14394,211 +14446,211 @@
     </row>
     <row r="350" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A350" s="7"/>
-      <c r="B350" s="1">
+      <c r="B350" s="42">
         <v>23.01</v>
       </c>
-      <c r="C350" s="1">
+      <c r="C350" s="42">
         <v>4.6100000000000003</v>
       </c>
-      <c r="D350" s="1">
+      <c r="D350" s="42">
         <v>21.83</v>
       </c>
-      <c r="E350" s="1">
+      <c r="E350" s="42">
         <v>4.51</v>
       </c>
-      <c r="F350" s="1">
+      <c r="F350" s="42">
         <v>20.350000000000001</v>
       </c>
-      <c r="G350" s="2">
+      <c r="G350" s="43">
         <v>4.05</v>
       </c>
     </row>
     <row r="351" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A351" s="7"/>
-      <c r="B351" s="1">
+      <c r="B351" s="42">
         <v>22.08</v>
       </c>
-      <c r="C351" s="1">
+      <c r="C351" s="42">
         <v>4.62</v>
       </c>
-      <c r="D351" s="1">
+      <c r="D351" s="42">
         <v>20.399999999999999</v>
       </c>
-      <c r="E351" s="1">
+      <c r="E351" s="42">
         <v>3.36</v>
       </c>
-      <c r="F351" s="1">
+      <c r="F351" s="42">
         <v>20.309999999999999</v>
       </c>
-      <c r="G351" s="2">
+      <c r="G351" s="43">
         <v>4.1100000000000003</v>
       </c>
     </row>
     <row r="352" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A352" s="7"/>
-      <c r="B352" s="1">
+      <c r="B352" s="42">
         <v>22.59</v>
       </c>
-      <c r="C352" s="1">
+      <c r="C352" s="42">
         <v>4.8499999999999996</v>
       </c>
-      <c r="D352" s="1">
+      <c r="D352" s="42">
         <v>19.3</v>
       </c>
-      <c r="E352" s="1">
+      <c r="E352" s="42">
         <v>3.02</v>
       </c>
-      <c r="F352" s="1">
+      <c r="F352" s="42">
         <v>19.649999999999999</v>
       </c>
-      <c r="G352" s="2">
+      <c r="G352" s="43">
         <v>3.56</v>
       </c>
     </row>
     <row r="353" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A353" s="7"/>
-      <c r="B353" s="1">
+      <c r="B353" s="42">
         <v>22.16</v>
       </c>
-      <c r="C353" s="1">
+      <c r="C353" s="42">
         <v>4.55</v>
       </c>
-      <c r="D353" s="1">
+      <c r="D353" s="42">
         <v>19.97</v>
       </c>
-      <c r="E353" s="1">
+      <c r="E353" s="42">
         <v>2.61</v>
       </c>
-      <c r="F353" s="1">
+      <c r="F353" s="42">
         <v>21</v>
       </c>
-      <c r="G353" s="2">
+      <c r="G353" s="43">
         <v>4.54</v>
       </c>
     </row>
     <row r="354" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A354" s="7"/>
-      <c r="B354" s="1">
+      <c r="B354" s="42">
         <v>22.47</v>
       </c>
-      <c r="C354" s="1">
+      <c r="C354" s="42">
         <v>4.51</v>
       </c>
-      <c r="D354" s="1">
+      <c r="D354" s="42">
         <v>19.899999999999999</v>
       </c>
-      <c r="E354" s="1">
+      <c r="E354" s="42">
         <v>3.6</v>
       </c>
-      <c r="F354" s="1">
+      <c r="F354" s="42">
         <v>20.2</v>
       </c>
-      <c r="G354" s="2">
+      <c r="G354" s="43">
         <v>4</v>
       </c>
     </row>
     <row r="355" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A355" s="7"/>
-      <c r="B355" s="1">
+      <c r="B355" s="42">
         <v>22.09</v>
       </c>
-      <c r="C355" s="1">
+      <c r="C355" s="42">
         <v>4.4800000000000004</v>
       </c>
-      <c r="D355" s="1">
+      <c r="D355" s="42">
         <v>18.170000000000002</v>
       </c>
-      <c r="E355" s="1">
+      <c r="E355" s="42">
         <v>2.59</v>
       </c>
-      <c r="F355" s="1">
+      <c r="F355" s="42">
         <v>21.96</v>
       </c>
-      <c r="G355" s="2">
+      <c r="G355" s="43">
         <v>4.3499999999999996</v>
       </c>
     </row>
     <row r="356" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A356" s="7"/>
-      <c r="B356" s="1">
+      <c r="B356" s="42">
         <v>22.87</v>
       </c>
-      <c r="C356" s="1">
+      <c r="C356" s="42">
         <v>4.9000000000000004</v>
       </c>
-      <c r="D356" s="1">
+      <c r="D356" s="42">
         <v>19.02</v>
       </c>
-      <c r="E356" s="1">
+      <c r="E356" s="42">
         <v>2.6</v>
       </c>
-      <c r="F356" s="1">
+      <c r="F356" s="42">
         <v>20.9</v>
       </c>
-      <c r="G356" s="2">
+      <c r="G356" s="43">
         <v>4.3</v>
       </c>
     </row>
     <row r="357" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A357" s="7"/>
-      <c r="B357" s="1">
+      <c r="B357" s="42">
         <v>21.64</v>
       </c>
-      <c r="C357" s="1">
+      <c r="C357" s="42">
         <v>4.29</v>
       </c>
-      <c r="D357" s="1">
+      <c r="D357" s="42">
         <v>18.72</v>
       </c>
-      <c r="E357" s="1">
+      <c r="E357" s="42">
         <v>2.99</v>
       </c>
-      <c r="F357" s="1">
+      <c r="F357" s="42">
         <v>20.94</v>
       </c>
-      <c r="G357" s="2">
+      <c r="G357" s="43">
         <v>4.04</v>
       </c>
     </row>
     <row r="358" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A358" s="7"/>
-      <c r="B358" s="1">
+      <c r="B358" s="42">
         <v>20.73</v>
       </c>
-      <c r="C358" s="1">
+      <c r="C358" s="42">
         <v>4</v>
       </c>
-      <c r="D358" s="1">
+      <c r="D358" s="42">
         <v>19.91</v>
       </c>
-      <c r="E358" s="1">
+      <c r="E358" s="42">
         <v>3.08</v>
       </c>
-      <c r="F358" s="1">
+      <c r="F358" s="42">
         <v>19.16</v>
       </c>
-      <c r="G358" s="2">
+      <c r="G358" s="43">
         <v>3.36</v>
       </c>
     </row>
     <row r="359" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A359" s="7"/>
-      <c r="B359" s="1">
+      <c r="B359" s="42">
         <v>21.2</v>
       </c>
-      <c r="C359" s="1">
+      <c r="C359" s="42">
         <v>2.94</v>
       </c>
-      <c r="D359" s="1">
+      <c r="D359" s="42">
         <v>18.79</v>
       </c>
-      <c r="E359" s="1">
+      <c r="E359" s="42">
         <v>3.34</v>
       </c>
-      <c r="F359" s="1">
+      <c r="F359" s="42">
         <v>20.2</v>
       </c>
-      <c r="G359" s="2">
+      <c r="G359" s="43">
         <v>3.91</v>
       </c>
     </row>
@@ -14674,259 +14726,259 @@
     </row>
     <row r="364" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A364" s="7"/>
-      <c r="B364" s="1">
+      <c r="B364" s="42">
         <v>19.899999999999999</v>
       </c>
-      <c r="C364" s="1">
+      <c r="C364" s="42">
         <v>3.78</v>
       </c>
-      <c r="D364" s="1">
+      <c r="D364" s="42">
         <v>20.100000000000001</v>
       </c>
-      <c r="E364" s="1">
+      <c r="E364" s="42">
         <v>3.17</v>
       </c>
-      <c r="F364" s="1">
+      <c r="F364" s="42">
         <v>18.920000000000002</v>
       </c>
-      <c r="G364" s="1">
+      <c r="G364" s="42">
         <v>2.92</v>
       </c>
-      <c r="H364" s="1">
+      <c r="H364" s="42">
         <v>20.39</v>
       </c>
-      <c r="I364" s="2">
+      <c r="I364" s="43">
         <v>3.39</v>
       </c>
     </row>
     <row r="365" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A365" s="7"/>
-      <c r="B365" s="1">
+      <c r="B365" s="42">
         <v>22.44</v>
       </c>
-      <c r="C365" s="1">
+      <c r="C365" s="42">
         <v>4.72</v>
       </c>
-      <c r="D365" s="1">
+      <c r="D365" s="42">
         <v>19.559999999999999</v>
       </c>
-      <c r="E365" s="1">
+      <c r="E365" s="42">
         <v>3.17</v>
       </c>
-      <c r="F365" s="1">
+      <c r="F365" s="42">
         <v>20.420000000000002</v>
       </c>
-      <c r="G365" s="1">
+      <c r="G365" s="42">
         <v>3.62</v>
       </c>
-      <c r="H365" s="1">
+      <c r="H365" s="42">
         <v>19.78</v>
       </c>
-      <c r="I365" s="2">
+      <c r="I365" s="43">
         <v>3.17</v>
       </c>
     </row>
     <row r="366" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A366" s="7"/>
-      <c r="B366" s="1">
+      <c r="B366" s="42">
         <v>18.84</v>
       </c>
-      <c r="C366" s="1">
+      <c r="C366" s="42">
         <v>2.48</v>
       </c>
-      <c r="D366" s="1">
+      <c r="D366" s="42">
         <v>20.14</v>
       </c>
-      <c r="E366" s="1">
+      <c r="E366" s="42">
         <v>3.36</v>
       </c>
-      <c r="F366" s="1">
+      <c r="F366" s="42">
         <v>20.350000000000001</v>
       </c>
-      <c r="G366" s="1">
+      <c r="G366" s="42">
         <v>4.0199999999999996</v>
       </c>
-      <c r="H366" s="1">
+      <c r="H366" s="42">
         <v>20.72</v>
       </c>
-      <c r="I366" s="2">
+      <c r="I366" s="43">
         <v>3.99</v>
       </c>
     </row>
     <row r="367" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A367" s="7"/>
-      <c r="B367" s="1">
+      <c r="B367" s="42">
         <v>21.43</v>
       </c>
-      <c r="C367" s="1">
+      <c r="C367" s="42">
         <v>5.03</v>
       </c>
-      <c r="D367" s="1">
+      <c r="D367" s="42">
         <v>19.11</v>
       </c>
-      <c r="E367" s="1">
+      <c r="E367" s="42">
         <v>3.15</v>
       </c>
-      <c r="F367" s="1">
+      <c r="F367" s="42">
         <v>20.32</v>
       </c>
-      <c r="G367" s="1">
+      <c r="G367" s="42">
         <v>3.69</v>
       </c>
-      <c r="H367" s="1">
+      <c r="H367" s="42">
         <v>21.1</v>
       </c>
-      <c r="I367" s="2">
+      <c r="I367" s="43">
         <v>3.8</v>
       </c>
     </row>
     <row r="368" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A368" s="7"/>
-      <c r="B368" s="1">
+      <c r="B368" s="42">
         <v>20.8</v>
       </c>
-      <c r="C368" s="1">
+      <c r="C368" s="42">
         <v>4.1100000000000003</v>
       </c>
-      <c r="D368" s="1">
+      <c r="D368" s="42">
         <v>18.78</v>
       </c>
-      <c r="E368" s="1">
+      <c r="E368" s="42">
         <v>2.9</v>
       </c>
-      <c r="F368" s="1">
+      <c r="F368" s="42">
         <v>20.170000000000002</v>
       </c>
-      <c r="G368" s="1">
+      <c r="G368" s="42">
         <v>3.25</v>
       </c>
-      <c r="H368" s="1">
+      <c r="H368" s="42">
         <v>20.41</v>
       </c>
-      <c r="I368" s="2">
+      <c r="I368" s="43">
         <v>4.1100000000000003</v>
       </c>
     </row>
     <row r="369" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A369" s="7"/>
-      <c r="B369" s="1">
+      <c r="B369" s="42">
         <v>21.3</v>
       </c>
-      <c r="C369" s="1">
+      <c r="C369" s="42">
         <v>4.21</v>
       </c>
-      <c r="D369" s="1">
+      <c r="D369" s="42">
         <v>20.440000000000001</v>
       </c>
-      <c r="E369" s="1">
+      <c r="E369" s="42">
         <v>3.53</v>
       </c>
-      <c r="F369" s="1">
+      <c r="F369" s="42">
         <v>19.57</v>
       </c>
-      <c r="G369" s="1">
+      <c r="G369" s="42">
         <v>3.36</v>
       </c>
-      <c r="H369" s="1">
+      <c r="H369" s="42">
         <v>20.51</v>
       </c>
-      <c r="I369" s="2">
+      <c r="I369" s="43">
         <v>3.67</v>
       </c>
     </row>
     <row r="370" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A370" s="7"/>
-      <c r="B370" s="1">
+      <c r="B370" s="42">
         <v>21.58</v>
       </c>
-      <c r="C370" s="1">
+      <c r="C370" s="42">
         <v>4.63</v>
       </c>
-      <c r="D370" s="1">
+      <c r="D370" s="42">
         <v>19.72</v>
       </c>
-      <c r="E370" s="1">
+      <c r="E370" s="42">
         <v>3.33</v>
       </c>
-      <c r="F370" s="1">
+      <c r="F370" s="42">
         <v>19.63</v>
       </c>
-      <c r="G370" s="1">
+      <c r="G370" s="42">
         <v>3.15</v>
       </c>
-      <c r="H370" s="1">
+      <c r="H370" s="42">
         <v>18.940000000000001</v>
       </c>
-      <c r="I370" s="2">
+      <c r="I370" s="43">
         <v>1.8</v>
       </c>
     </row>
     <row r="371" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A371" s="7"/>
-      <c r="B371" s="1">
+      <c r="B371" s="42">
         <v>22.48</v>
       </c>
-      <c r="C371" s="1">
+      <c r="C371" s="42">
         <v>4.53</v>
       </c>
-      <c r="D371" s="1">
+      <c r="D371" s="42">
         <v>19.600000000000001</v>
       </c>
-      <c r="E371" s="1">
+      <c r="E371" s="42">
         <v>3.36</v>
       </c>
       <c r="F371" s="1"/>
       <c r="G371" s="1"/>
-      <c r="H371" s="1">
+      <c r="H371" s="42">
         <v>19.510000000000002</v>
       </c>
-      <c r="I371" s="2">
+      <c r="I371" s="43">
         <v>3.74</v>
       </c>
     </row>
     <row r="372" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A372" s="7"/>
-      <c r="B372" s="1">
+      <c r="B372" s="42">
         <v>21.42</v>
       </c>
-      <c r="C372" s="1">
+      <c r="C372" s="42">
         <v>4.78</v>
       </c>
-      <c r="D372" s="1">
+      <c r="D372" s="42">
         <v>20.94</v>
       </c>
-      <c r="E372" s="1">
+      <c r="E372" s="42">
         <v>3.81</v>
       </c>
       <c r="F372" s="1"/>
       <c r="G372" s="1"/>
-      <c r="H372" s="1">
+      <c r="H372" s="42">
         <v>19.77</v>
       </c>
-      <c r="I372" s="2">
+      <c r="I372" s="43">
         <v>3.75</v>
       </c>
     </row>
     <row r="373" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A373" s="7"/>
-      <c r="B373" s="1">
+      <c r="B373" s="42">
         <v>21.4</v>
       </c>
-      <c r="C373" s="1">
+      <c r="C373" s="42">
         <v>4.54</v>
       </c>
-      <c r="D373" s="1">
+      <c r="D373" s="42">
         <v>19.43</v>
       </c>
-      <c r="E373" s="1">
+      <c r="E373" s="42">
         <v>2.84</v>
       </c>
       <c r="F373" s="1"/>
       <c r="G373" s="1"/>
-      <c r="H373" s="1">
+      <c r="H373" s="42">
         <v>20.79</v>
       </c>
-      <c r="I373" s="2">
+      <c r="I373" s="43">
         <v>4.42</v>
       </c>
     </row>
@@ -14938,10 +14990,10 @@
       <c r="E374" s="1"/>
       <c r="F374" s="1"/>
       <c r="G374" s="1"/>
-      <c r="H374" s="1">
+      <c r="H374" s="42">
         <v>20.329999999999998</v>
       </c>
-      <c r="I374" s="2">
+      <c r="I374" s="43">
         <v>4.2300000000000004</v>
       </c>
     </row>
@@ -14953,10 +15005,10 @@
       <c r="E375" s="1"/>
       <c r="F375" s="1"/>
       <c r="G375" s="1"/>
-      <c r="H375" s="1">
+      <c r="H375" s="42">
         <v>20.16</v>
       </c>
-      <c r="I375" s="2">
+      <c r="I375" s="43">
         <v>3.93</v>
       </c>
     </row>
@@ -14968,10 +15020,10 @@
       <c r="E376" s="1"/>
       <c r="F376" s="1"/>
       <c r="G376" s="1"/>
-      <c r="H376" s="1">
+      <c r="H376" s="42">
         <v>20.170000000000002</v>
       </c>
-      <c r="I376" s="2">
+      <c r="I376" s="43">
         <v>4.1399999999999997</v>
       </c>
     </row>
@@ -14983,10 +15035,10 @@
       <c r="E377" s="1"/>
       <c r="F377" s="1"/>
       <c r="G377" s="1"/>
-      <c r="H377" s="1">
+      <c r="H377" s="42">
         <v>20.98</v>
       </c>
-      <c r="I377" s="2">
+      <c r="I377" s="43">
         <v>3.84</v>
       </c>
     </row>
@@ -14998,10 +15050,10 @@
       <c r="E378" s="1"/>
       <c r="F378" s="1"/>
       <c r="G378" s="1"/>
-      <c r="H378" s="1">
+      <c r="H378" s="42">
         <v>20.059999999999999</v>
       </c>
-      <c r="I378" s="2">
+      <c r="I378" s="43">
         <v>3.71</v>
       </c>
     </row>
@@ -15132,16 +15184,16 @@
     </row>
     <row r="384" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A384" s="7"/>
-      <c r="B384" s="1">
+      <c r="B384" s="42">
         <v>20.010000000000002</v>
       </c>
-      <c r="C384" s="1">
+      <c r="C384" s="42">
         <v>3.6</v>
       </c>
-      <c r="D384" s="1">
+      <c r="D384" s="42">
         <v>19.940000000000001</v>
       </c>
-      <c r="E384" s="1">
+      <c r="E384" s="42">
         <v>3.73</v>
       </c>
       <c r="F384" s="1">
@@ -15150,22 +15202,22 @@
       <c r="G384" s="1">
         <v>3.63</v>
       </c>
-      <c r="H384" s="1">
+      <c r="H384" s="42">
         <v>19.98</v>
       </c>
-      <c r="I384" s="1">
+      <c r="I384" s="42">
         <v>2.8</v>
       </c>
-      <c r="J384" s="1">
+      <c r="J384" s="42">
         <v>22</v>
       </c>
-      <c r="K384" s="1">
+      <c r="K384" s="42">
         <v>5.65</v>
       </c>
-      <c r="L384" s="1">
+      <c r="L384" s="42">
         <v>19.93</v>
       </c>
-      <c r="M384" s="1">
+      <c r="M384" s="42">
         <v>2.79</v>
       </c>
       <c r="N384" s="1">
@@ -15177,16 +15229,16 @@
     </row>
     <row r="385" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A385" s="7"/>
-      <c r="B385" s="1">
+      <c r="B385" s="42">
         <v>20.329999999999998</v>
       </c>
-      <c r="C385" s="1">
+      <c r="C385" s="42">
         <v>3.82</v>
       </c>
-      <c r="D385" s="1">
+      <c r="D385" s="42">
         <v>20.34</v>
       </c>
-      <c r="E385" s="1">
+      <c r="E385" s="42">
         <v>3.95</v>
       </c>
       <c r="F385" s="1">
@@ -15195,22 +15247,22 @@
       <c r="G385" s="1">
         <v>3.33</v>
       </c>
-      <c r="H385" s="1">
+      <c r="H385" s="42">
         <v>19.329999999999998</v>
       </c>
-      <c r="I385" s="1">
+      <c r="I385" s="42">
         <v>2.54</v>
       </c>
-      <c r="J385" s="1">
+      <c r="J385" s="42">
         <v>21.45</v>
       </c>
-      <c r="K385" s="1">
+      <c r="K385" s="42">
         <v>5.61</v>
       </c>
-      <c r="L385" s="1">
+      <c r="L385" s="42">
         <v>20.94</v>
       </c>
-      <c r="M385" s="1">
+      <c r="M385" s="42">
         <v>3.83</v>
       </c>
       <c r="N385" s="1">
@@ -15222,16 +15274,16 @@
     </row>
     <row r="386" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A386" s="7"/>
-      <c r="B386" s="1">
+      <c r="B386" s="42">
         <v>20.23</v>
       </c>
-      <c r="C386" s="1">
+      <c r="C386" s="42">
         <v>4.0599999999999996</v>
       </c>
-      <c r="D386" s="1">
+      <c r="D386" s="42">
         <v>20.43</v>
       </c>
-      <c r="E386" s="1">
+      <c r="E386" s="42">
         <v>3.84</v>
       </c>
       <c r="F386" s="1">
@@ -15240,22 +15292,22 @@
       <c r="G386" s="1">
         <v>3.8</v>
       </c>
-      <c r="H386" s="1">
+      <c r="H386" s="42">
         <v>18.7</v>
       </c>
-      <c r="I386" s="1">
+      <c r="I386" s="42">
         <v>2.57</v>
       </c>
-      <c r="J386" s="1">
+      <c r="J386" s="42">
         <v>22.3</v>
       </c>
-      <c r="K386" s="1">
+      <c r="K386" s="42">
         <v>5.32</v>
       </c>
-      <c r="L386" s="1">
+      <c r="L386" s="42">
         <v>20.55</v>
       </c>
-      <c r="M386" s="1">
+      <c r="M386" s="42">
         <v>3.5</v>
       </c>
       <c r="N386" s="1">
@@ -15267,16 +15319,16 @@
     </row>
     <row r="387" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A387" s="7"/>
-      <c r="B387" s="1">
+      <c r="B387" s="42">
         <v>20.46</v>
       </c>
-      <c r="C387" s="1">
+      <c r="C387" s="42">
         <v>4.18</v>
       </c>
-      <c r="D387" s="1">
+      <c r="D387" s="42">
         <v>20.16</v>
       </c>
-      <c r="E387" s="1">
+      <c r="E387" s="42">
         <v>3.96</v>
       </c>
       <c r="F387" s="1">
@@ -15285,22 +15337,22 @@
       <c r="G387" s="1">
         <v>3.49</v>
       </c>
-      <c r="H387" s="1">
+      <c r="H387" s="42">
         <v>18.53</v>
       </c>
-      <c r="I387" s="1">
+      <c r="I387" s="42">
         <v>3.03</v>
       </c>
-      <c r="J387" s="1">
+      <c r="J387" s="42">
         <v>21.43</v>
       </c>
-      <c r="K387" s="1">
+      <c r="K387" s="42">
         <v>4.76</v>
       </c>
-      <c r="L387" s="1">
+      <c r="L387" s="42">
         <v>20.37</v>
       </c>
-      <c r="M387" s="1">
+      <c r="M387" s="42">
         <v>3.29</v>
       </c>
       <c r="N387" s="1">
@@ -15312,16 +15364,16 @@
     </row>
     <row r="388" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A388" s="7"/>
-      <c r="B388" s="1">
+      <c r="B388" s="42">
         <v>19.850000000000001</v>
       </c>
-      <c r="C388" s="1">
+      <c r="C388" s="42">
         <v>3.29</v>
       </c>
-      <c r="D388" s="1">
+      <c r="D388" s="42">
         <v>19.5</v>
       </c>
-      <c r="E388" s="1">
+      <c r="E388" s="42">
         <v>3.76</v>
       </c>
       <c r="F388" s="1">
@@ -15330,22 +15382,22 @@
       <c r="G388" s="1">
         <v>3.43</v>
       </c>
-      <c r="H388" s="1">
+      <c r="H388" s="42">
         <v>18.3</v>
       </c>
-      <c r="I388" s="1">
+      <c r="I388" s="42">
         <v>2.97</v>
       </c>
-      <c r="J388" s="1">
+      <c r="J388" s="42">
         <v>22.51</v>
       </c>
-      <c r="K388" s="1">
+      <c r="K388" s="42">
         <v>5.2</v>
       </c>
-      <c r="L388" s="1">
+      <c r="L388" s="42">
         <v>18.77</v>
       </c>
-      <c r="M388" s="1">
+      <c r="M388" s="42">
         <v>3.41</v>
       </c>
       <c r="N388" s="1">
@@ -15357,16 +15409,16 @@
     </row>
     <row r="389" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A389" s="7"/>
-      <c r="B389" s="1">
+      <c r="B389" s="42">
         <v>19.52</v>
       </c>
-      <c r="C389" s="1">
+      <c r="C389" s="42">
         <v>3.74</v>
       </c>
-      <c r="D389" s="1">
+      <c r="D389" s="42">
         <v>20.329999999999998</v>
       </c>
-      <c r="E389" s="1">
+      <c r="E389" s="42">
         <v>3.85</v>
       </c>
       <c r="F389" s="1">
@@ -15375,22 +15427,22 @@
       <c r="G389" s="1">
         <v>3.44</v>
       </c>
-      <c r="H389" s="1">
+      <c r="H389" s="42">
         <v>20.5</v>
       </c>
-      <c r="I389" s="1">
+      <c r="I389" s="42">
         <v>1.52</v>
       </c>
-      <c r="J389" s="1">
+      <c r="J389" s="42">
         <v>22.7</v>
       </c>
-      <c r="K389" s="1">
+      <c r="K389" s="42">
         <v>5.48</v>
       </c>
-      <c r="L389" s="1">
+      <c r="L389" s="42">
         <v>19.75</v>
       </c>
-      <c r="M389" s="1">
+      <c r="M389" s="42">
         <v>2.7</v>
       </c>
       <c r="N389" s="1">
@@ -15402,28 +15454,28 @@
     </row>
     <row r="390" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A390" s="7"/>
-      <c r="B390" s="1">
+      <c r="B390" s="42">
         <v>19.95</v>
       </c>
-      <c r="C390" s="1">
+      <c r="C390" s="42">
         <v>3.8</v>
       </c>
       <c r="D390" s="1"/>
       <c r="E390" s="1"/>
       <c r="F390" s="1"/>
       <c r="G390" s="1"/>
-      <c r="H390" s="1">
+      <c r="H390" s="42">
         <v>18.489999999999998</v>
       </c>
-      <c r="I390" s="1">
+      <c r="I390" s="42">
         <v>2.94</v>
       </c>
       <c r="J390" s="1"/>
       <c r="K390" s="1"/>
-      <c r="L390" s="1">
+      <c r="L390" s="42">
         <v>20.34</v>
       </c>
-      <c r="M390" s="1">
+      <c r="M390" s="42">
         <v>3.63</v>
       </c>
       <c r="N390" s="1">
@@ -15435,28 +15487,28 @@
     </row>
     <row r="391" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A391" s="7"/>
-      <c r="B391" s="1">
+      <c r="B391" s="42">
         <v>20.329999999999998</v>
       </c>
-      <c r="C391" s="1">
+      <c r="C391" s="42">
         <v>3.81</v>
       </c>
       <c r="D391" s="1"/>
       <c r="E391" s="1"/>
       <c r="F391" s="1"/>
       <c r="G391" s="1"/>
-      <c r="H391" s="1">
+      <c r="H391" s="42">
         <v>18.91</v>
       </c>
-      <c r="I391" s="1">
+      <c r="I391" s="42">
         <v>3.06</v>
       </c>
       <c r="J391" s="1"/>
       <c r="K391" s="1"/>
-      <c r="L391" s="1">
+      <c r="L391" s="42">
         <v>20.239999999999998</v>
       </c>
-      <c r="M391" s="1">
+      <c r="M391" s="42">
         <v>3.25</v>
       </c>
       <c r="N391" s="1">
@@ -15468,28 +15520,28 @@
     </row>
     <row r="392" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A392" s="7"/>
-      <c r="B392" s="1">
+      <c r="B392" s="42">
         <v>19.510000000000002</v>
       </c>
-      <c r="C392" s="1">
+      <c r="C392" s="42">
         <v>3.73</v>
       </c>
       <c r="D392" s="1"/>
       <c r="E392" s="1"/>
       <c r="F392" s="1"/>
       <c r="G392" s="1"/>
-      <c r="H392" s="1">
+      <c r="H392" s="42">
         <v>18.149999999999999</v>
       </c>
-      <c r="I392" s="1">
+      <c r="I392" s="42">
         <v>2.81</v>
       </c>
       <c r="J392" s="1"/>
       <c r="K392" s="1"/>
-      <c r="L392" s="1">
+      <c r="L392" s="42">
         <v>21.79</v>
       </c>
-      <c r="M392" s="1">
+      <c r="M392" s="42">
         <v>4.8099999999999996</v>
       </c>
       <c r="N392" s="1">
@@ -15501,28 +15553,28 @@
     </row>
     <row r="393" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A393" s="7"/>
-      <c r="B393" s="1">
+      <c r="B393" s="42">
         <v>20.32</v>
       </c>
-      <c r="C393" s="1">
+      <c r="C393" s="42">
         <v>3.91</v>
       </c>
       <c r="D393" s="1"/>
       <c r="E393" s="1"/>
       <c r="F393" s="1"/>
       <c r="G393" s="1"/>
-      <c r="H393" s="1">
+      <c r="H393" s="42">
         <v>18.41</v>
       </c>
-      <c r="I393" s="1">
+      <c r="I393" s="42">
         <v>2.83</v>
       </c>
       <c r="J393" s="1"/>
       <c r="K393" s="1"/>
-      <c r="L393" s="1">
+      <c r="L393" s="42">
         <v>21.07</v>
       </c>
-      <c r="M393" s="1">
+      <c r="M393" s="42">
         <v>3.71</v>
       </c>
       <c r="N393" s="1">
@@ -15534,28 +15586,28 @@
     </row>
     <row r="394" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A394" s="7"/>
-      <c r="B394" s="1">
+      <c r="B394" s="42">
         <v>19.16</v>
       </c>
-      <c r="C394" s="1">
+      <c r="C394" s="42">
         <v>3.55</v>
       </c>
       <c r="D394" s="1"/>
       <c r="E394" s="1"/>
       <c r="F394" s="1"/>
       <c r="G394" s="1"/>
-      <c r="H394" s="1">
+      <c r="H394" s="42">
         <v>18.91</v>
       </c>
-      <c r="I394" s="1">
+      <c r="I394" s="42">
         <v>2.91</v>
       </c>
       <c r="J394" s="1"/>
       <c r="K394" s="1"/>
-      <c r="L394" s="1">
+      <c r="L394" s="42">
         <v>20.51</v>
       </c>
-      <c r="M394" s="1">
+      <c r="M394" s="42">
         <v>2.87</v>
       </c>
       <c r="N394" s="1">
@@ -15573,18 +15625,18 @@
       <c r="E395" s="1"/>
       <c r="F395" s="1"/>
       <c r="G395" s="1"/>
-      <c r="H395" s="1">
+      <c r="H395" s="42">
         <v>19.32</v>
       </c>
-      <c r="I395" s="1">
+      <c r="I395" s="42">
         <v>3.09</v>
       </c>
       <c r="J395" s="1"/>
       <c r="K395" s="1"/>
-      <c r="L395" s="1">
+      <c r="L395" s="42">
         <v>20.09</v>
       </c>
-      <c r="M395" s="1">
+      <c r="M395" s="42">
         <v>3.21</v>
       </c>
       <c r="N395" s="1">
@@ -15602,10 +15654,10 @@
       <c r="E396" s="1"/>
       <c r="F396" s="1"/>
       <c r="G396" s="1"/>
-      <c r="H396" s="1">
+      <c r="H396" s="42">
         <v>18.23</v>
       </c>
-      <c r="I396" s="1">
+      <c r="I396" s="42">
         <v>2.97</v>
       </c>
       <c r="J396" s="1"/>
@@ -15627,10 +15679,10 @@
       <c r="E397" s="1"/>
       <c r="F397" s="1"/>
       <c r="G397" s="1"/>
-      <c r="H397" s="1">
+      <c r="H397" s="42">
         <v>19.29</v>
       </c>
-      <c r="I397" s="1">
+      <c r="I397" s="42">
         <v>2.84</v>
       </c>
       <c r="J397" s="1"/>
@@ -15652,10 +15704,10 @@
       <c r="E398" s="1"/>
       <c r="F398" s="1"/>
       <c r="G398" s="1"/>
-      <c r="H398" s="1">
+      <c r="H398" s="42">
         <v>18.84</v>
       </c>
-      <c r="I398" s="1">
+      <c r="I398" s="42">
         <v>3.05</v>
       </c>
       <c r="J398" s="1"/>
@@ -16447,40 +16499,40 @@
     </row>
     <row r="425" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A425" s="11"/>
-      <c r="B425" s="11">
+      <c r="B425" s="45">
         <v>19.14</v>
       </c>
-      <c r="C425" s="1">
+      <c r="C425" s="42">
         <v>3.55</v>
       </c>
-      <c r="D425" s="1">
+      <c r="D425" s="42">
         <v>20.5</v>
       </c>
-      <c r="E425" s="1">
+      <c r="E425" s="42">
         <v>3.99</v>
       </c>
-      <c r="F425" s="12">
+      <c r="F425" s="42">
         <v>18.82</v>
       </c>
-      <c r="G425" s="12">
+      <c r="G425" s="42">
         <v>2.48</v>
       </c>
-      <c r="H425" s="12">
+      <c r="H425" s="42">
         <v>21.85</v>
       </c>
-      <c r="I425" s="12">
+      <c r="I425" s="42">
         <v>4.2300000000000004</v>
       </c>
-      <c r="J425" s="12">
+      <c r="J425" s="42">
         <v>20.32</v>
       </c>
-      <c r="K425" s="12">
+      <c r="K425" s="42">
         <v>3.36</v>
       </c>
-      <c r="L425" s="12">
+      <c r="L425" s="42">
         <v>19.649999999999999</v>
       </c>
-      <c r="M425" s="26">
+      <c r="M425" s="44">
         <v>3.5</v>
       </c>
       <c r="N425" s="12"/>
@@ -16488,40 +16540,40 @@
     </row>
     <row r="426" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A426" s="11"/>
-      <c r="B426" s="11">
+      <c r="B426" s="45">
         <v>19.62</v>
       </c>
-      <c r="C426" s="1">
+      <c r="C426" s="42">
         <v>4.04</v>
       </c>
-      <c r="D426" s="1">
+      <c r="D426" s="42">
         <v>20.46</v>
       </c>
-      <c r="E426" s="1">
+      <c r="E426" s="42">
         <v>3.86</v>
       </c>
-      <c r="F426" s="12">
+      <c r="F426" s="42">
         <v>19.89</v>
       </c>
-      <c r="G426" s="12">
+      <c r="G426" s="42">
         <v>3.92</v>
       </c>
-      <c r="H426" s="12">
+      <c r="H426" s="42">
         <v>21.36</v>
       </c>
-      <c r="I426" s="12">
+      <c r="I426" s="42">
         <v>4.1900000000000004</v>
       </c>
-      <c r="J426" s="12">
+      <c r="J426" s="42">
         <v>19.88</v>
       </c>
-      <c r="K426" s="12">
+      <c r="K426" s="42">
         <v>3.25</v>
       </c>
-      <c r="L426" s="12">
+      <c r="L426" s="42">
         <v>19.37</v>
       </c>
-      <c r="M426" s="26">
+      <c r="M426" s="44">
         <v>3.15</v>
       </c>
       <c r="N426" s="12"/>
@@ -16529,40 +16581,40 @@
     </row>
     <row r="427" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A427" s="11"/>
-      <c r="B427" s="11">
+      <c r="B427" s="45">
         <v>19.68</v>
       </c>
-      <c r="C427" s="1">
+      <c r="C427" s="42">
         <v>3.63</v>
       </c>
-      <c r="D427" s="1">
+      <c r="D427" s="42">
         <v>19.579999999999998</v>
       </c>
-      <c r="E427" s="1">
+      <c r="E427" s="42">
         <v>3.87</v>
       </c>
-      <c r="F427" s="12">
+      <c r="F427" s="42">
         <v>19.02</v>
       </c>
-      <c r="G427" s="12">
+      <c r="G427" s="42">
         <v>3.25</v>
       </c>
-      <c r="H427" s="12">
+      <c r="H427" s="42">
         <v>19.79</v>
       </c>
-      <c r="I427" s="12">
+      <c r="I427" s="42">
         <v>3.85</v>
       </c>
-      <c r="J427" s="12">
+      <c r="J427" s="42">
         <v>19.5</v>
       </c>
-      <c r="K427" s="12">
+      <c r="K427" s="42">
         <v>2.96</v>
       </c>
-      <c r="L427" s="12">
+      <c r="L427" s="42">
         <v>19.87</v>
       </c>
-      <c r="M427" s="26">
+      <c r="M427" s="44">
         <v>3.51</v>
       </c>
       <c r="N427" s="12"/>
@@ -16570,40 +16622,40 @@
     </row>
     <row r="428" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A428" s="11"/>
-      <c r="B428" s="11">
+      <c r="B428" s="45">
         <v>19.010000000000002</v>
       </c>
-      <c r="C428" s="1">
+      <c r="C428" s="42">
         <v>3.67</v>
       </c>
-      <c r="D428" s="12">
+      <c r="D428" s="42">
         <v>19.690000000000001</v>
       </c>
-      <c r="E428" s="12">
+      <c r="E428" s="42">
         <v>3.83</v>
       </c>
-      <c r="F428" s="12">
+      <c r="F428" s="42">
         <v>20.079999999999998</v>
       </c>
-      <c r="G428" s="12">
+      <c r="G428" s="42">
         <v>3.95</v>
       </c>
-      <c r="H428" s="12">
+      <c r="H428" s="42">
         <v>21.98</v>
       </c>
-      <c r="I428" s="12">
+      <c r="I428" s="42">
         <v>4.53</v>
       </c>
-      <c r="J428" s="12">
+      <c r="J428" s="42">
         <v>20.78</v>
       </c>
-      <c r="K428" s="12">
+      <c r="K428" s="42">
         <v>3.74</v>
       </c>
-      <c r="L428" s="12">
+      <c r="L428" s="42">
         <v>19.25</v>
       </c>
-      <c r="M428" s="26">
+      <c r="M428" s="44">
         <v>2.97</v>
       </c>
       <c r="N428" s="12"/>
@@ -16611,223 +16663,223 @@
     </row>
     <row r="429" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A429" s="11"/>
-      <c r="B429" s="11">
+      <c r="B429" s="45">
         <v>19.57</v>
       </c>
-      <c r="C429" s="1">
+      <c r="C429" s="42">
         <v>3.8</v>
       </c>
-      <c r="D429" s="12">
+      <c r="D429" s="42">
         <v>20.03</v>
       </c>
-      <c r="E429" s="12">
+      <c r="E429" s="42">
         <v>3.59</v>
       </c>
-      <c r="F429" s="12">
+      <c r="F429" s="42">
         <v>19.809999999999999</v>
       </c>
-      <c r="G429" s="12">
+      <c r="G429" s="42">
         <v>3.59</v>
       </c>
-      <c r="H429" s="12">
+      <c r="H429" s="42">
         <v>20.350000000000001</v>
       </c>
-      <c r="I429" s="12">
+      <c r="I429" s="42">
         <v>4.4400000000000004</v>
       </c>
-      <c r="J429" s="12">
+      <c r="J429" s="42">
         <v>21.18</v>
       </c>
-      <c r="K429" s="12">
+      <c r="K429" s="42">
         <v>3.19</v>
       </c>
-      <c r="L429" s="12">
+      <c r="L429" s="42">
         <v>19.07</v>
       </c>
-      <c r="M429" s="26">
+      <c r="M429" s="44">
         <v>3.46</v>
       </c>
     </row>
     <row r="430" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A430" s="11"/>
-      <c r="B430" s="11">
+      <c r="B430" s="45">
         <v>19.63</v>
       </c>
-      <c r="C430" s="1">
+      <c r="C430" s="42">
         <v>3.57</v>
       </c>
-      <c r="D430" s="12">
+      <c r="D430" s="42">
         <v>19.48</v>
       </c>
-      <c r="E430" s="12">
+      <c r="E430" s="42">
         <v>3.76</v>
       </c>
-      <c r="F430" s="12">
+      <c r="F430" s="42">
         <v>20.36</v>
       </c>
-      <c r="G430" s="12">
+      <c r="G430" s="42">
         <v>3.93</v>
       </c>
-      <c r="H430" s="12">
+      <c r="H430" s="42">
         <v>21.09</v>
       </c>
-      <c r="I430" s="12">
+      <c r="I430" s="42">
         <v>4.28</v>
       </c>
-      <c r="J430" s="12">
+      <c r="J430" s="42">
         <v>20.74</v>
       </c>
-      <c r="K430" s="12">
+      <c r="K430" s="42">
         <v>4.0599999999999996</v>
       </c>
-      <c r="L430" s="12">
+      <c r="L430" s="42">
         <v>19.149999999999999</v>
       </c>
-      <c r="M430" s="26">
+      <c r="M430" s="44">
         <v>3.42</v>
       </c>
     </row>
     <row r="431" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A431" s="11"/>
-      <c r="B431" s="11">
+      <c r="B431" s="45">
         <v>19.600000000000001</v>
       </c>
-      <c r="C431" s="1">
+      <c r="C431" s="42">
         <v>3.42</v>
       </c>
-      <c r="D431" s="12">
+      <c r="D431" s="42">
         <v>19.670000000000002</v>
       </c>
-      <c r="E431" s="12">
+      <c r="E431" s="42">
         <v>3.53</v>
       </c>
-      <c r="F431" s="12">
+      <c r="F431" s="42">
         <v>19.149999999999999</v>
       </c>
-      <c r="G431" s="12">
+      <c r="G431" s="42">
         <v>3.37</v>
       </c>
-      <c r="H431" s="12">
+      <c r="H431" s="42">
         <v>21.88</v>
       </c>
-      <c r="I431" s="12">
+      <c r="I431" s="42">
         <v>4.24</v>
       </c>
-      <c r="J431" s="12">
+      <c r="J431" s="42">
         <v>21.92</v>
       </c>
-      <c r="K431" s="12">
+      <c r="K431" s="42">
         <v>3.56</v>
       </c>
-      <c r="L431" s="12">
+      <c r="L431" s="42">
         <v>20.39</v>
       </c>
-      <c r="M431" s="26">
+      <c r="M431" s="44">
         <v>4.1500000000000004</v>
       </c>
     </row>
     <row r="432" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A432" s="11"/>
-      <c r="B432" s="11">
+      <c r="B432" s="45">
         <v>18.8</v>
       </c>
-      <c r="C432" s="1">
+      <c r="C432" s="42">
         <v>3.38</v>
       </c>
-      <c r="D432" s="12">
+      <c r="D432" s="42">
         <v>18.91</v>
       </c>
-      <c r="E432" s="12">
+      <c r="E432" s="42">
         <v>3.73</v>
       </c>
-      <c r="F432" s="12">
+      <c r="F432" s="42">
         <v>19.64</v>
       </c>
-      <c r="G432" s="12">
+      <c r="G432" s="42">
         <v>3.72</v>
       </c>
-      <c r="H432" s="12">
+      <c r="H432" s="42">
         <v>21.02</v>
       </c>
-      <c r="I432" s="12">
+      <c r="I432" s="42">
         <v>4.1900000000000004</v>
       </c>
-      <c r="J432" s="12">
+      <c r="J432" s="42">
         <v>20.77</v>
       </c>
-      <c r="K432" s="12">
+      <c r="K432" s="42">
         <v>3.11</v>
       </c>
-      <c r="L432" s="12">
+      <c r="L432" s="42">
         <v>20.28</v>
       </c>
-      <c r="M432" s="26">
+      <c r="M432" s="44">
         <v>4.2699999999999996</v>
       </c>
     </row>
     <row r="433" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A433" s="11"/>
-      <c r="B433" s="11">
+      <c r="B433" s="45">
         <v>19.93</v>
       </c>
-      <c r="C433" s="1">
+      <c r="C433" s="42">
         <v>3.67</v>
       </c>
-      <c r="D433" s="12">
+      <c r="D433" s="42">
         <v>20.18</v>
       </c>
-      <c r="E433" s="12">
+      <c r="E433" s="42">
         <v>4.0199999999999996</v>
       </c>
-      <c r="F433" s="12">
+      <c r="F433" s="42">
         <v>19.77</v>
       </c>
-      <c r="G433" s="12">
+      <c r="G433" s="42">
         <v>2.0699999999999998</v>
       </c>
-      <c r="H433" s="12">
+      <c r="H433" s="42">
         <v>20.79</v>
       </c>
-      <c r="I433" s="12">
+      <c r="I433" s="42">
         <v>3.69</v>
       </c>
-      <c r="L433" s="12">
+      <c r="L433" s="42">
         <v>19.8</v>
       </c>
-      <c r="M433" s="26">
+      <c r="M433" s="44">
         <v>3.95</v>
       </c>
     </row>
     <row r="434" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A434" s="11"/>
-      <c r="B434" s="11">
+      <c r="B434" s="45">
         <v>19.64</v>
       </c>
-      <c r="C434" s="1">
+      <c r="C434" s="42">
         <v>3.77</v>
       </c>
-      <c r="D434" s="12">
+      <c r="D434" s="42">
         <v>19.47</v>
       </c>
-      <c r="E434" s="12">
+      <c r="E434" s="42">
         <v>3.8</v>
       </c>
-      <c r="F434" s="12">
+      <c r="F434" s="42">
         <v>20.329999999999998</v>
       </c>
-      <c r="G434" s="12">
+      <c r="G434" s="42">
         <v>1.74</v>
       </c>
-      <c r="H434" s="12">
+      <c r="H434" s="42">
         <v>19.75</v>
       </c>
-      <c r="I434" s="12">
+      <c r="I434" s="42">
         <v>3.88</v>
       </c>
-      <c r="L434" s="12">
+      <c r="L434" s="42">
         <v>20.27</v>
       </c>
-      <c r="M434" s="26">
+      <c r="M434" s="44">
         <v>4.09</v>
       </c>
     </row>
@@ -16835,28 +16887,28 @@
       <c r="A435" s="11"/>
       <c r="B435" s="11"/>
       <c r="C435" s="1"/>
-      <c r="D435" s="12">
+      <c r="D435" s="42">
         <v>19.75</v>
       </c>
-      <c r="E435" s="12">
+      <c r="E435" s="42">
         <v>3.71</v>
       </c>
-      <c r="F435" s="12">
+      <c r="F435" s="42">
         <v>21.07</v>
       </c>
-      <c r="G435" s="12">
+      <c r="G435" s="42">
         <v>4.07</v>
       </c>
-      <c r="H435" s="12">
+      <c r="H435" s="42">
         <v>19.64</v>
       </c>
-      <c r="I435" s="12">
+      <c r="I435" s="42">
         <v>3.6</v>
       </c>
-      <c r="L435" s="12">
+      <c r="L435" s="42">
         <v>20.13</v>
       </c>
-      <c r="M435" s="26">
+      <c r="M435" s="44">
         <v>4.47</v>
       </c>
     </row>
@@ -16864,28 +16916,28 @@
       <c r="A436" s="11"/>
       <c r="B436" s="11"/>
       <c r="C436" s="1"/>
-      <c r="D436" s="12">
+      <c r="D436" s="42">
         <v>19.64</v>
       </c>
-      <c r="E436" s="12">
+      <c r="E436" s="42">
         <v>3.71</v>
       </c>
-      <c r="F436" s="12">
+      <c r="F436" s="42">
         <v>20.71</v>
       </c>
-      <c r="G436" s="12">
+      <c r="G436" s="42">
         <v>3.89</v>
       </c>
-      <c r="H436" s="12">
+      <c r="H436" s="42">
         <v>19.489999999999998</v>
       </c>
-      <c r="I436" s="12">
+      <c r="I436" s="42">
         <v>3.56</v>
       </c>
-      <c r="L436" s="12">
+      <c r="L436" s="42">
         <v>21.05</v>
       </c>
-      <c r="M436" s="27">
+      <c r="M436" s="44">
         <v>4.0999999999999996</v>
       </c>
     </row>
@@ -16893,28 +16945,28 @@
       <c r="A437" s="11"/>
       <c r="B437" s="11"/>
       <c r="C437" s="1"/>
-      <c r="D437" s="12">
+      <c r="D437" s="42">
         <v>19.59</v>
       </c>
-      <c r="E437" s="12">
+      <c r="E437" s="42">
         <v>3.4</v>
       </c>
-      <c r="F437" s="12">
+      <c r="F437" s="42">
         <v>20.100000000000001</v>
       </c>
-      <c r="G437" s="12">
+      <c r="G437" s="42">
         <v>3.8</v>
       </c>
-      <c r="H437" s="12">
+      <c r="H437" s="42">
         <v>19.170000000000002</v>
       </c>
-      <c r="I437" s="12">
+      <c r="I437" s="42">
         <v>3.2</v>
       </c>
-      <c r="L437" s="12">
+      <c r="L437" s="42">
         <v>20.32</v>
       </c>
-      <c r="M437" s="27">
+      <c r="M437" s="44">
         <v>4.12</v>
       </c>
     </row>
@@ -16924,22 +16976,22 @@
       <c r="C438" s="1"/>
       <c r="D438" s="12"/>
       <c r="E438" s="12"/>
-      <c r="F438" s="12">
+      <c r="F438" s="42">
         <v>20.48</v>
       </c>
-      <c r="G438" s="12">
+      <c r="G438" s="42">
         <v>3.41</v>
       </c>
-      <c r="H438" s="12">
+      <c r="H438" s="42">
         <v>19.18</v>
       </c>
-      <c r="I438" s="12">
+      <c r="I438" s="42">
         <v>3.32</v>
       </c>
-      <c r="L438" s="12">
+      <c r="L438" s="42">
         <v>19.260000000000002</v>
       </c>
-      <c r="M438" s="27">
+      <c r="M438" s="44">
         <v>3.4</v>
       </c>
     </row>
@@ -16949,18 +17001,18 @@
       <c r="C439" s="1"/>
       <c r="D439" s="12"/>
       <c r="E439" s="12"/>
-      <c r="F439" s="12">
+      <c r="F439" s="42">
         <v>19.78</v>
       </c>
-      <c r="G439" s="12">
+      <c r="G439" s="42">
         <v>3.93</v>
       </c>
       <c r="H439" s="12"/>
       <c r="I439" s="12"/>
-      <c r="L439" s="12">
+      <c r="L439" s="42">
         <v>19.04</v>
       </c>
-      <c r="M439" s="27">
+      <c r="M439" s="44">
         <v>3.33</v>
       </c>
     </row>
@@ -16970,18 +17022,18 @@
       <c r="C440" s="1"/>
       <c r="D440" s="12"/>
       <c r="E440" s="12"/>
-      <c r="F440" s="12">
+      <c r="F440" s="42">
         <v>19.8</v>
       </c>
-      <c r="G440" s="12">
+      <c r="G440" s="42">
         <v>3.73</v>
       </c>
       <c r="H440" s="12"/>
       <c r="I440" s="12"/>
-      <c r="L440" s="12">
+      <c r="L440" s="42">
         <v>18.46</v>
       </c>
-      <c r="M440" s="27">
+      <c r="M440" s="44">
         <v>3.26</v>
       </c>
     </row>
@@ -16991,18 +17043,18 @@
       <c r="C441" s="1"/>
       <c r="D441" s="12"/>
       <c r="E441" s="12"/>
-      <c r="F441" s="12">
+      <c r="F441" s="42">
         <v>19.75</v>
       </c>
-      <c r="G441" s="12">
+      <c r="G441" s="42">
         <v>3.91</v>
       </c>
       <c r="H441" s="12"/>
       <c r="I441" s="12"/>
-      <c r="L441" s="12">
+      <c r="L441" s="42">
         <v>18.899999999999999</v>
       </c>
-      <c r="M441" s="27">
+      <c r="M441" s="44">
         <v>3.58</v>
       </c>
     </row>
@@ -17012,18 +17064,18 @@
       <c r="C442" s="1"/>
       <c r="D442" s="12"/>
       <c r="E442" s="12"/>
-      <c r="F442" s="12">
+      <c r="F442" s="42">
         <v>20.9</v>
       </c>
-      <c r="G442" s="12">
+      <c r="G442" s="42">
         <v>4.1100000000000003</v>
       </c>
       <c r="H442" s="12"/>
       <c r="I442" s="12"/>
-      <c r="L442" s="12">
+      <c r="L442" s="42">
         <v>20.100000000000001</v>
       </c>
-      <c r="M442" s="27">
+      <c r="M442" s="44">
         <v>4.25</v>
       </c>
     </row>
@@ -17033,18 +17085,18 @@
       <c r="C443" s="1"/>
       <c r="D443" s="12"/>
       <c r="E443" s="12"/>
-      <c r="F443" s="12">
+      <c r="F443" s="42">
         <v>19.600000000000001</v>
       </c>
-      <c r="G443" s="12">
+      <c r="G443" s="42">
         <v>3.55</v>
       </c>
       <c r="H443" s="12"/>
       <c r="I443" s="12"/>
-      <c r="L443" s="12">
+      <c r="L443" s="42">
         <v>18.850000000000001</v>
       </c>
-      <c r="M443" s="27">
+      <c r="M443" s="44">
         <v>3.73</v>
       </c>
     </row>
@@ -17054,18 +17106,18 @@
       <c r="C444" s="1"/>
       <c r="D444" s="12"/>
       <c r="E444" s="12"/>
-      <c r="F444" s="12">
+      <c r="F444" s="42">
         <v>19.739999999999998</v>
       </c>
-      <c r="G444" s="12">
+      <c r="G444" s="42">
         <v>3.45</v>
       </c>
       <c r="H444" s="12"/>
       <c r="I444" s="12"/>
-      <c r="L444" s="12">
+      <c r="L444" s="42">
         <v>20.39</v>
       </c>
-      <c r="M444" s="27">
+      <c r="M444" s="44">
         <v>4.42</v>
       </c>
     </row>
@@ -17075,18 +17127,18 @@
       <c r="C445" s="1"/>
       <c r="D445" s="12"/>
       <c r="E445" s="12"/>
-      <c r="F445" s="12">
+      <c r="F445" s="42">
         <v>20.61</v>
       </c>
-      <c r="G445" s="12">
+      <c r="G445" s="42">
         <v>3.88</v>
       </c>
       <c r="H445" s="12"/>
       <c r="I445" s="12"/>
-      <c r="L445" s="12">
+      <c r="L445" s="42">
         <v>19.62</v>
       </c>
-      <c r="M445" s="27">
+      <c r="M445" s="44">
         <v>3.6</v>
       </c>
     </row>
@@ -17100,10 +17152,10 @@
       <c r="G446" s="12"/>
       <c r="H446" s="12"/>
       <c r="I446" s="12"/>
-      <c r="L446" s="12">
+      <c r="L446" s="42">
         <v>17.64</v>
       </c>
-      <c r="M446" s="27">
+      <c r="M446" s="44">
         <v>2.4300000000000002</v>
       </c>
     </row>
@@ -17257,10 +17309,10 @@
     </row>
     <row r="452" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A452" s="15"/>
-      <c r="B452" s="1">
+      <c r="B452" s="42">
         <v>19.7</v>
       </c>
-      <c r="C452" s="1">
+      <c r="C452" s="42">
         <v>4.17</v>
       </c>
       <c r="D452" s="1">
@@ -17269,10 +17321,10 @@
       <c r="E452" s="12">
         <v>3.99</v>
       </c>
-      <c r="F452" s="12">
+      <c r="F452" s="42">
         <v>19.37</v>
       </c>
-      <c r="G452" s="12">
+      <c r="G452" s="42">
         <v>3.92</v>
       </c>
       <c r="H452" s="12">
@@ -17281,25 +17333,25 @@
       <c r="I452" s="12">
         <v>4.4000000000000004</v>
       </c>
-      <c r="J452" s="12">
+      <c r="J452" s="42">
         <v>19.54</v>
       </c>
-      <c r="K452" s="12">
+      <c r="K452" s="42">
         <v>3.27</v>
       </c>
-      <c r="L452" s="12">
+      <c r="L452" s="42">
         <v>15.94</v>
       </c>
-      <c r="M452" s="26">
+      <c r="M452" s="44">
         <v>1.91</v>
       </c>
     </row>
     <row r="453" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A453" s="15"/>
-      <c r="B453" s="1">
+      <c r="B453" s="42">
         <v>20.78</v>
       </c>
-      <c r="C453" s="1">
+      <c r="C453" s="42">
         <v>4.25</v>
       </c>
       <c r="D453" s="1">
@@ -17308,10 +17360,10 @@
       <c r="E453" s="12">
         <v>4.43</v>
       </c>
-      <c r="F453" s="12">
+      <c r="F453" s="42">
         <v>19.02</v>
       </c>
-      <c r="G453" s="12">
+      <c r="G453" s="42">
         <v>3.77</v>
       </c>
       <c r="H453" s="12">
@@ -17320,25 +17372,25 @@
       <c r="I453" s="12">
         <v>4.5599999999999996</v>
       </c>
-      <c r="J453" s="12">
+      <c r="J453" s="42">
         <v>19.87</v>
       </c>
-      <c r="K453" s="12">
+      <c r="K453" s="42">
         <v>3.11</v>
       </c>
-      <c r="L453" s="12">
+      <c r="L453" s="42">
         <v>18.11</v>
       </c>
-      <c r="M453" s="26">
+      <c r="M453" s="44">
         <v>2.3199999999999998</v>
       </c>
     </row>
     <row r="454" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A454" s="15"/>
-      <c r="B454" s="1">
+      <c r="B454" s="42">
         <v>19.52</v>
       </c>
-      <c r="C454" s="1">
+      <c r="C454" s="42">
         <v>3.84</v>
       </c>
       <c r="D454" s="1">
@@ -17347,10 +17399,10 @@
       <c r="E454" s="12">
         <v>3.13</v>
       </c>
-      <c r="F454" s="12">
+      <c r="F454" s="42">
         <v>18.79</v>
       </c>
-      <c r="G454" s="12">
+      <c r="G454" s="42">
         <v>3.73</v>
       </c>
       <c r="H454" s="12">
@@ -17359,25 +17411,25 @@
       <c r="I454" s="12">
         <v>4.5999999999999996</v>
       </c>
-      <c r="J454" s="12">
+      <c r="J454" s="42">
         <v>19.13</v>
       </c>
-      <c r="K454" s="12">
+      <c r="K454" s="42">
         <v>3.35</v>
       </c>
-      <c r="L454" s="12">
+      <c r="L454" s="42">
         <v>17.88</v>
       </c>
-      <c r="M454" s="26">
+      <c r="M454" s="44">
         <v>2.8</v>
       </c>
     </row>
     <row r="455" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A455" s="15"/>
-      <c r="B455" s="12">
+      <c r="B455" s="42">
         <v>20.8</v>
       </c>
-      <c r="C455" s="12">
+      <c r="C455" s="42">
         <v>2.82</v>
       </c>
       <c r="D455" s="12">
@@ -17386,10 +17438,10 @@
       <c r="E455" s="12">
         <v>4.08</v>
       </c>
-      <c r="F455" s="12">
+      <c r="F455" s="42">
         <v>19.510000000000002</v>
       </c>
-      <c r="G455" s="12">
+      <c r="G455" s="42">
         <v>3.96</v>
       </c>
       <c r="H455" s="12">
@@ -17398,25 +17450,25 @@
       <c r="I455" s="12">
         <v>4.17</v>
       </c>
-      <c r="J455" s="12">
+      <c r="J455" s="42">
         <v>20.41</v>
       </c>
-      <c r="K455" s="12">
+      <c r="K455" s="42">
         <v>3.55</v>
       </c>
-      <c r="L455" s="12">
+      <c r="L455" s="42">
         <v>18.23</v>
       </c>
-      <c r="M455" s="26">
+      <c r="M455" s="44">
         <v>3</v>
       </c>
     </row>
     <row r="456" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A456" s="15"/>
-      <c r="B456" s="12">
+      <c r="B456" s="42">
         <v>20.07</v>
       </c>
-      <c r="C456" s="12">
+      <c r="C456" s="42">
         <v>3.95</v>
       </c>
       <c r="D456" s="12">
@@ -17425,10 +17477,10 @@
       <c r="E456" s="12">
         <v>4.1900000000000004</v>
       </c>
-      <c r="F456" s="12">
+      <c r="F456" s="42">
         <v>19.420000000000002</v>
       </c>
-      <c r="G456" s="12">
+      <c r="G456" s="42">
         <v>4.04</v>
       </c>
       <c r="H456" s="12">
@@ -17437,25 +17489,25 @@
       <c r="I456" s="12">
         <v>4.6399999999999997</v>
       </c>
-      <c r="J456" s="12">
+      <c r="J456" s="42">
         <v>19.16</v>
       </c>
-      <c r="K456" s="12">
+      <c r="K456" s="42">
         <v>3.28</v>
       </c>
-      <c r="L456" s="12">
+      <c r="L456" s="42">
         <v>18.55</v>
       </c>
-      <c r="M456" s="26">
+      <c r="M456" s="44">
         <v>2.97</v>
       </c>
     </row>
     <row r="457" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A457" s="15"/>
-      <c r="B457" s="12">
+      <c r="B457" s="42">
         <v>20.010000000000002</v>
       </c>
-      <c r="C457" s="12">
+      <c r="C457" s="42">
         <v>3.69</v>
       </c>
       <c r="D457" s="12">
@@ -17464,10 +17516,10 @@
       <c r="E457" s="12">
         <v>4.76</v>
       </c>
-      <c r="F457" s="12">
+      <c r="F457" s="42">
         <v>19.97</v>
       </c>
-      <c r="G457" s="12">
+      <c r="G457" s="42">
         <v>4.04</v>
       </c>
       <c r="H457" s="12">
@@ -17476,25 +17528,25 @@
       <c r="I457" s="12">
         <v>4.6500000000000004</v>
       </c>
-      <c r="J457" s="12">
+      <c r="J457" s="42">
         <v>20.51</v>
       </c>
-      <c r="K457" s="12">
+      <c r="K457" s="42">
         <v>2.14</v>
       </c>
-      <c r="L457" s="12">
+      <c r="L457" s="42">
         <v>18.61</v>
       </c>
-      <c r="M457" s="26">
+      <c r="M457" s="44">
         <v>2.96</v>
       </c>
     </row>
     <row r="458" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A458" s="15"/>
-      <c r="B458" s="12">
+      <c r="B458" s="42">
         <v>20.32</v>
       </c>
-      <c r="C458" s="12">
+      <c r="C458" s="42">
         <v>4.0199999999999996</v>
       </c>
       <c r="D458" s="12">
@@ -17503,10 +17555,10 @@
       <c r="E458" s="12">
         <v>4.6100000000000003</v>
       </c>
-      <c r="F458" s="12">
+      <c r="F458" s="42">
         <v>18.7</v>
       </c>
-      <c r="G458" s="12">
+      <c r="G458" s="42">
         <v>4.16</v>
       </c>
       <c r="H458" s="12">
@@ -17515,25 +17567,25 @@
       <c r="I458" s="12">
         <v>4.54</v>
       </c>
-      <c r="J458" s="12">
+      <c r="J458" s="42">
         <v>20.48</v>
       </c>
-      <c r="K458" s="12">
+      <c r="K458" s="42">
         <v>2.39</v>
       </c>
-      <c r="L458" s="12">
+      <c r="L458" s="42">
         <v>17.53</v>
       </c>
-      <c r="M458" s="26">
+      <c r="M458" s="44">
         <v>2.65</v>
       </c>
     </row>
     <row r="459" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A459" s="15"/>
-      <c r="B459" s="12">
+      <c r="B459" s="42">
         <v>20.46</v>
       </c>
-      <c r="C459" s="12">
+      <c r="C459" s="42">
         <v>3.93</v>
       </c>
       <c r="D459" s="12">
@@ -17542,10 +17594,10 @@
       <c r="E459" s="12">
         <v>4.0199999999999996</v>
       </c>
-      <c r="F459" s="12">
+      <c r="F459" s="42">
         <v>19.09</v>
       </c>
-      <c r="G459" s="12">
+      <c r="G459" s="42">
         <v>3.93</v>
       </c>
       <c r="H459" s="12">
@@ -17554,25 +17606,25 @@
       <c r="I459" s="12">
         <v>4.53</v>
       </c>
-      <c r="J459" s="12">
+      <c r="J459" s="42">
         <v>19.760000000000002</v>
       </c>
-      <c r="K459" s="12">
+      <c r="K459" s="42">
         <v>3.54</v>
       </c>
-      <c r="L459" s="12">
+      <c r="L459" s="42">
         <v>18.579999999999998</v>
       </c>
-      <c r="M459" s="26">
+      <c r="M459" s="44">
         <v>2.86</v>
       </c>
     </row>
     <row r="460" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A460" s="15"/>
-      <c r="B460" s="12">
+      <c r="B460" s="42">
         <v>20.02</v>
       </c>
-      <c r="C460" s="12">
+      <c r="C460" s="42">
         <v>3.71</v>
       </c>
       <c r="D460" s="12">
@@ -17581,10 +17633,10 @@
       <c r="E460" s="12">
         <v>4.59</v>
       </c>
-      <c r="F460" s="12">
+      <c r="F460" s="42">
         <v>20.37</v>
       </c>
-      <c r="G460" s="12">
+      <c r="G460" s="42">
         <v>3.87</v>
       </c>
       <c r="H460" s="12">
@@ -17593,25 +17645,25 @@
       <c r="I460" s="12">
         <v>4.3099999999999996</v>
       </c>
-      <c r="J460" s="12">
+      <c r="J460" s="42">
         <v>19.62</v>
       </c>
-      <c r="K460" s="12">
+      <c r="K460" s="42">
         <v>3.36</v>
       </c>
-      <c r="L460" s="12">
+      <c r="L460" s="42">
         <v>19.72</v>
       </c>
-      <c r="M460" s="26">
+      <c r="M460" s="44">
         <v>3.35</v>
       </c>
     </row>
     <row r="461" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A461" s="15"/>
-      <c r="B461" s="12">
+      <c r="B461" s="42">
         <v>20.46</v>
       </c>
-      <c r="C461" s="12">
+      <c r="C461" s="42">
         <v>4.26</v>
       </c>
       <c r="D461" s="12">
@@ -17620,10 +17672,10 @@
       <c r="E461" s="12">
         <v>4.0199999999999996</v>
       </c>
-      <c r="F461" s="12">
+      <c r="F461" s="42">
         <v>19.920000000000002</v>
       </c>
-      <c r="G461" s="12">
+      <c r="G461" s="42">
         <v>3.7</v>
       </c>
       <c r="H461" s="12">
@@ -17632,20 +17684,20 @@
       <c r="I461" s="12">
         <v>4.07</v>
       </c>
-      <c r="J461" s="12">
+      <c r="J461" s="42">
         <v>19.78</v>
       </c>
-      <c r="K461" s="12">
+      <c r="K461" s="42">
         <v>3.12</v>
       </c>
       <c r="M461" s="27"/>
     </row>
     <row r="462" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A462" s="15"/>
-      <c r="B462" s="12">
+      <c r="B462" s="42">
         <v>20.04</v>
       </c>
-      <c r="C462" s="12">
+      <c r="C462" s="42">
         <v>3.51</v>
       </c>
       <c r="D462" s="12">
@@ -17654,26 +17706,26 @@
       <c r="E462" s="12">
         <v>4.03</v>
       </c>
-      <c r="F462" s="12">
+      <c r="F462" s="42">
         <v>18.32</v>
       </c>
-      <c r="G462" s="12">
+      <c r="G462" s="42">
         <v>3.6</v>
       </c>
-      <c r="J462" s="12">
+      <c r="J462" s="42">
         <v>20.12</v>
       </c>
-      <c r="K462" s="12">
+      <c r="K462" s="42">
         <v>3.04</v>
       </c>
       <c r="M462" s="27"/>
     </row>
     <row r="463" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A463" s="15"/>
-      <c r="B463" s="12">
+      <c r="B463" s="42">
         <v>20.5</v>
       </c>
-      <c r="C463" s="12">
+      <c r="C463" s="42">
         <v>3.38</v>
       </c>
       <c r="D463" s="12">
@@ -17682,10 +17734,10 @@
       <c r="E463" s="12">
         <v>4.28</v>
       </c>
-      <c r="F463" s="12">
+      <c r="F463" s="42">
         <v>19.23</v>
       </c>
-      <c r="G463" s="12">
+      <c r="G463" s="42">
         <v>3.96</v>
       </c>
       <c r="M463" s="27"/>
@@ -17853,10 +17905,10 @@
       <c r="E470" s="1">
         <v>4.16</v>
       </c>
-      <c r="F470" s="1">
+      <c r="F470" s="42">
         <v>20.72</v>
       </c>
-      <c r="G470" s="1">
+      <c r="G470" s="42">
         <v>4.6500000000000004</v>
       </c>
       <c r="H470" s="12">
@@ -17892,10 +17944,10 @@
       <c r="E471" s="1">
         <v>4.93</v>
       </c>
-      <c r="F471" s="1">
+      <c r="F471" s="42">
         <v>19.850000000000001</v>
       </c>
-      <c r="G471" s="1">
+      <c r="G471" s="42">
         <v>3.32</v>
       </c>
       <c r="H471" s="12">
@@ -17931,10 +17983,10 @@
       <c r="E472" s="1">
         <v>4.32</v>
       </c>
-      <c r="F472" s="1">
+      <c r="F472" s="42">
         <v>20.41</v>
       </c>
-      <c r="G472" s="1">
+      <c r="G472" s="42">
         <v>3.78</v>
       </c>
       <c r="H472" s="12">
@@ -17970,10 +18022,10 @@
       <c r="E473" s="1">
         <v>3.6</v>
       </c>
-      <c r="F473" s="1">
+      <c r="F473" s="42">
         <v>20.16</v>
       </c>
-      <c r="G473" s="1">
+      <c r="G473" s="42">
         <v>3.99</v>
       </c>
       <c r="H473" s="12">
@@ -18009,10 +18061,10 @@
       <c r="E474" s="1">
         <v>4.96</v>
       </c>
-      <c r="F474" s="1">
+      <c r="F474" s="42">
         <v>20.22</v>
       </c>
-      <c r="G474" s="1">
+      <c r="G474" s="42">
         <v>4.51</v>
       </c>
       <c r="H474" s="12">
@@ -18048,10 +18100,10 @@
       <c r="E475" s="1">
         <v>4.71</v>
       </c>
-      <c r="F475" s="1">
+      <c r="F475" s="42">
         <v>19.68</v>
       </c>
-      <c r="G475" s="1">
+      <c r="G475" s="42">
         <v>4.5199999999999996</v>
       </c>
       <c r="H475" s="12">
@@ -18087,10 +18139,10 @@
       <c r="E476" s="1">
         <v>4.21</v>
       </c>
-      <c r="F476" s="1">
+      <c r="F476" s="42">
         <v>18.850000000000001</v>
       </c>
-      <c r="G476" s="1">
+      <c r="G476" s="42">
         <v>3.71</v>
       </c>
       <c r="H476" s="12">
@@ -18126,10 +18178,10 @@
       <c r="E477" s="1">
         <v>4.26</v>
       </c>
-      <c r="F477" s="1">
+      <c r="F477" s="42">
         <v>20.25</v>
       </c>
-      <c r="G477" s="1">
+      <c r="G477" s="42">
         <v>3.47</v>
       </c>
       <c r="H477" s="12">
@@ -18165,10 +18217,10 @@
       <c r="E478" s="1">
         <v>4.58</v>
       </c>
-      <c r="F478" s="1">
+      <c r="F478" s="42">
         <v>20.350000000000001</v>
       </c>
-      <c r="G478" s="1">
+      <c r="G478" s="42">
         <v>4.67</v>
       </c>
       <c r="H478" s="12">
@@ -18204,10 +18256,10 @@
       <c r="E479" s="1">
         <v>3.59</v>
       </c>
-      <c r="F479" s="1">
+      <c r="F479" s="42">
         <v>21.74</v>
       </c>
-      <c r="G479" s="1">
+      <c r="G479" s="42">
         <v>4.2300000000000004</v>
       </c>
       <c r="H479" s="12">
@@ -18243,10 +18295,10 @@
       <c r="E480" s="1">
         <v>3.61</v>
       </c>
-      <c r="F480" s="1">
+      <c r="F480" s="42">
         <v>20.27</v>
       </c>
-      <c r="G480" s="1">
+      <c r="G480" s="42">
         <v>5.03</v>
       </c>
       <c r="H480" s="12">
@@ -18282,10 +18334,10 @@
       <c r="E481" s="1">
         <v>4.26</v>
       </c>
-      <c r="F481" s="1">
+      <c r="F481" s="42">
         <v>19.489999999999998</v>
       </c>
-      <c r="G481" s="1">
+      <c r="G481" s="42">
         <v>4.0999999999999996</v>
       </c>
       <c r="H481" s="12">
@@ -18321,10 +18373,10 @@
       <c r="E482" s="1">
         <v>3.57</v>
       </c>
-      <c r="F482" s="1">
+      <c r="F482" s="42">
         <v>19.37</v>
       </c>
-      <c r="G482" s="1">
+      <c r="G482" s="42">
         <v>3.97</v>
       </c>
       <c r="H482" s="12">
@@ -18355,10 +18407,10 @@
       <c r="E483" s="1">
         <v>3.9</v>
       </c>
-      <c r="F483" s="1">
+      <c r="F483" s="42">
         <v>20.09</v>
       </c>
-      <c r="G483" s="1">
+      <c r="G483" s="42">
         <v>4.01</v>
       </c>
       <c r="H483" s="12">
@@ -18379,10 +18431,10 @@
       </c>
       <c r="D484" s="1"/>
       <c r="E484" s="1"/>
-      <c r="F484" s="1">
+      <c r="F484" s="42">
         <v>20.260000000000002</v>
       </c>
-      <c r="G484" s="1">
+      <c r="G484" s="42">
         <v>4.18</v>
       </c>
       <c r="H484" s="12">
@@ -18404,9 +18456,7 @@
       <c r="D485" s="1"/>
       <c r="E485" s="1"/>
       <c r="F485" s="1"/>
-      <c r="G485" s="1">
-        <v>4.2699999999999996</v>
-      </c>
+      <c r="G485" s="1"/>
       <c r="H485" s="1"/>
       <c r="M485" s="27"/>
     </row>
@@ -18554,7 +18604,7 @@
       </c>
       <c r="G494" s="13">
         <f t="shared" ref="G494" si="28">AVERAGE(G470:G493)</f>
-        <v>4.1506249999999998</v>
+        <v>4.1426666666666661</v>
       </c>
       <c r="H494" s="13">
         <f t="shared" ref="H494" si="29">AVERAGE(H470:H493)</f>
@@ -18612,145 +18662,145 @@
     </row>
     <row r="498" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A498" s="15"/>
-      <c r="B498" s="1">
+      <c r="B498" s="42">
         <v>19.690000000000001</v>
       </c>
-      <c r="C498" s="2">
+      <c r="C498" s="43">
         <v>4.38</v>
       </c>
     </row>
     <row r="499" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A499" s="15"/>
-      <c r="B499" s="1">
+      <c r="B499" s="42">
         <v>19.649999999999999</v>
       </c>
-      <c r="C499" s="2">
+      <c r="C499" s="43">
         <v>3.88</v>
       </c>
     </row>
     <row r="500" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A500" s="15"/>
-      <c r="B500" s="1">
+      <c r="B500" s="42">
         <v>21.11</v>
       </c>
-      <c r="C500" s="2">
+      <c r="C500" s="43">
         <v>4.0999999999999996</v>
       </c>
     </row>
     <row r="501" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A501" s="15"/>
-      <c r="B501" s="1">
+      <c r="B501" s="42">
         <v>19.27</v>
       </c>
-      <c r="C501" s="2">
+      <c r="C501" s="43">
         <v>3.63</v>
       </c>
     </row>
     <row r="502" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A502" s="15"/>
-      <c r="B502" s="1">
+      <c r="B502" s="42">
         <v>19.3</v>
       </c>
-      <c r="C502" s="2">
+      <c r="C502" s="43">
         <v>2.1800000000000002</v>
       </c>
     </row>
     <row r="503" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A503" s="15"/>
-      <c r="B503" s="1">
+      <c r="B503" s="42">
         <v>17.91</v>
       </c>
-      <c r="C503" s="2">
+      <c r="C503" s="43">
         <v>3.19</v>
       </c>
     </row>
     <row r="504" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A504" s="15"/>
-      <c r="B504" s="1">
+      <c r="B504" s="42">
         <v>18.89</v>
       </c>
-      <c r="C504" s="2">
+      <c r="C504" s="43">
         <v>2.84</v>
       </c>
     </row>
     <row r="505" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A505" s="15"/>
-      <c r="B505" s="1">
+      <c r="B505" s="42">
         <v>18.170000000000002</v>
       </c>
-      <c r="C505" s="2">
+      <c r="C505" s="43">
         <v>2.6</v>
       </c>
     </row>
     <row r="506" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A506" s="15"/>
-      <c r="B506" s="1">
+      <c r="B506" s="42">
         <v>19.07</v>
       </c>
-      <c r="C506" s="2">
+      <c r="C506" s="43">
         <v>2.7</v>
       </c>
     </row>
     <row r="507" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A507" s="15"/>
-      <c r="B507" s="1">
+      <c r="B507" s="42">
         <v>18.489999999999998</v>
       </c>
-      <c r="C507" s="2">
+      <c r="C507" s="43">
         <v>3.51</v>
       </c>
     </row>
     <row r="508" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A508" s="15"/>
-      <c r="B508" s="1">
+      <c r="B508" s="42">
         <v>19.22</v>
       </c>
-      <c r="C508" s="2">
+      <c r="C508" s="43">
         <v>3.22</v>
       </c>
     </row>
     <row r="509" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A509" s="15"/>
-      <c r="B509" s="1">
+      <c r="B509" s="42">
         <v>18.149999999999999</v>
       </c>
-      <c r="C509" s="2">
+      <c r="C509" s="43">
         <v>3.41</v>
       </c>
     </row>
     <row r="510" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A510" s="15"/>
-      <c r="B510" s="1">
+      <c r="B510" s="42">
         <v>18.3</v>
       </c>
-      <c r="C510" s="2">
+      <c r="C510" s="43">
         <v>3.33</v>
       </c>
     </row>
     <row r="511" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A511" s="15"/>
-      <c r="B511" s="1">
+      <c r="B511" s="42">
         <v>17.170000000000002</v>
       </c>
-      <c r="C511" s="2">
+      <c r="C511" s="43">
         <v>2.3199999999999998</v>
       </c>
     </row>
     <row r="512" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A512" s="15"/>
-      <c r="B512" s="1">
+      <c r="B512" s="42">
         <v>19.329999999999998</v>
       </c>
-      <c r="C512" s="2">
+      <c r="C512" s="43">
         <v>3.39</v>
       </c>
     </row>
     <row r="513" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A513" s="34"/>
-      <c r="B513" s="1">
+      <c r="B513" s="42">
         <v>18.78</v>
       </c>
-      <c r="C513" s="2">
+      <c r="C513" s="43">
         <v>3.2</v>
       </c>
     </row>
@@ -18885,22 +18935,22 @@
     </row>
     <row r="519" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A519" s="15"/>
-      <c r="B519" s="1">
+      <c r="B519" s="42">
         <v>21.05</v>
       </c>
-      <c r="C519" s="1">
+      <c r="C519" s="42">
         <v>4.8899999999999997</v>
       </c>
-      <c r="D519" s="1">
+      <c r="D519" s="42">
         <v>20.48</v>
       </c>
-      <c r="E519" s="1">
+      <c r="E519" s="42">
         <v>4.5599999999999996</v>
       </c>
-      <c r="F519" s="1">
+      <c r="F519" s="42">
         <v>18.34</v>
       </c>
-      <c r="G519" s="1">
+      <c r="G519" s="42">
         <v>3.09</v>
       </c>
       <c r="H519" s="1">
@@ -18921,16 +18971,16 @@
       <c r="M519" s="1">
         <v>3.42</v>
       </c>
-      <c r="N519" s="1">
+      <c r="N519" s="42">
         <v>19.899999999999999</v>
       </c>
-      <c r="O519" s="1">
+      <c r="O519" s="42">
         <v>3.78</v>
       </c>
-      <c r="P519" s="1">
+      <c r="P519" s="42">
         <v>19.559999999999999</v>
       </c>
-      <c r="Q519" s="1">
+      <c r="Q519" s="42">
         <v>4.09</v>
       </c>
       <c r="R519" s="1">
@@ -18939,31 +18989,31 @@
       <c r="S519" s="1">
         <v>4.6100000000000003</v>
       </c>
-      <c r="T519" s="1">
+      <c r="T519" s="42">
         <v>18.87</v>
       </c>
-      <c r="U519" s="2">
+      <c r="U519" s="43">
         <v>3.92</v>
       </c>
     </row>
     <row r="520" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A520" s="15"/>
-      <c r="B520" s="1">
+      <c r="B520" s="42">
         <v>20.29</v>
       </c>
-      <c r="C520" s="1">
+      <c r="C520" s="42">
         <v>4.74</v>
       </c>
-      <c r="D520" s="1">
+      <c r="D520" s="42">
         <v>20.97</v>
       </c>
-      <c r="E520" s="1">
+      <c r="E520" s="42">
         <v>4.57</v>
       </c>
-      <c r="F520" s="1">
+      <c r="F520" s="42">
         <v>18.8</v>
       </c>
-      <c r="G520" s="1">
+      <c r="G520" s="42">
         <v>3.48</v>
       </c>
       <c r="H520" s="1">
@@ -18984,16 +19034,16 @@
       <c r="M520" s="1">
         <v>4.6500000000000004</v>
       </c>
-      <c r="N520" s="1">
+      <c r="N520" s="42">
         <v>20.77</v>
       </c>
-      <c r="O520" s="1">
+      <c r="O520" s="42">
         <v>4.62</v>
       </c>
-      <c r="P520" s="1">
+      <c r="P520" s="42">
         <v>20.309999999999999</v>
       </c>
-      <c r="Q520" s="1">
+      <c r="Q520" s="42">
         <v>4.24</v>
       </c>
       <c r="R520" s="1">
@@ -19002,31 +19052,31 @@
       <c r="S520" s="1">
         <v>4.41</v>
       </c>
-      <c r="T520" s="1">
+      <c r="T520" s="42">
         <v>19.34</v>
       </c>
-      <c r="U520" s="2">
+      <c r="U520" s="43">
         <v>3.41</v>
       </c>
     </row>
     <row r="521" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A521" s="15"/>
-      <c r="B521" s="1">
+      <c r="B521" s="42">
         <v>21.12</v>
       </c>
-      <c r="C521" s="1">
+      <c r="C521" s="42">
         <v>4.8899999999999997</v>
       </c>
-      <c r="D521" s="1">
+      <c r="D521" s="42">
         <v>20.29</v>
       </c>
-      <c r="E521" s="1">
+      <c r="E521" s="42">
         <v>4.38</v>
       </c>
-      <c r="F521" s="1">
+      <c r="F521" s="42">
         <v>18.59</v>
       </c>
-      <c r="G521" s="1">
+      <c r="G521" s="42">
         <v>3.38</v>
       </c>
       <c r="H521" s="1">
@@ -19047,16 +19097,16 @@
       <c r="M521" s="1">
         <v>4.1500000000000004</v>
       </c>
-      <c r="N521" s="1">
+      <c r="N521" s="42">
         <v>20.52</v>
       </c>
-      <c r="O521" s="1">
+      <c r="O521" s="42">
         <v>4.37</v>
       </c>
-      <c r="P521" s="1">
+      <c r="P521" s="42">
         <v>20.260000000000002</v>
       </c>
-      <c r="Q521" s="1">
+      <c r="Q521" s="42">
         <v>4.2699999999999996</v>
       </c>
       <c r="R521" s="1">
@@ -19065,31 +19115,31 @@
       <c r="S521" s="1">
         <v>3.5</v>
       </c>
-      <c r="T521" s="1">
+      <c r="T521" s="42">
         <v>19.3</v>
       </c>
-      <c r="U521" s="2">
+      <c r="U521" s="43">
         <v>3.44</v>
       </c>
     </row>
     <row r="522" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A522" s="15"/>
-      <c r="B522" s="1">
+      <c r="B522" s="42">
         <v>20.18</v>
       </c>
-      <c r="C522" s="1">
+      <c r="C522" s="42">
         <v>4.71</v>
       </c>
-      <c r="D522" s="1">
+      <c r="D522" s="42">
         <v>21.41</v>
       </c>
-      <c r="E522" s="1">
+      <c r="E522" s="42">
         <v>5.27</v>
       </c>
-      <c r="F522" s="1">
+      <c r="F522" s="42">
         <v>18.329999999999998</v>
       </c>
-      <c r="G522" s="1">
+      <c r="G522" s="42">
         <v>3.18</v>
       </c>
       <c r="H522" s="1">
@@ -19110,16 +19160,16 @@
       <c r="M522" s="1">
         <v>4.17</v>
       </c>
-      <c r="N522" s="1">
+      <c r="N522" s="42">
         <v>19.079999999999998</v>
       </c>
-      <c r="O522" s="1">
+      <c r="O522" s="42">
         <v>3.63</v>
       </c>
-      <c r="P522" s="1">
+      <c r="P522" s="42">
         <v>19.93</v>
       </c>
-      <c r="Q522" s="1">
+      <c r="Q522" s="42">
         <v>4.13</v>
       </c>
       <c r="R522" s="1">
@@ -19128,25 +19178,25 @@
       <c r="S522" s="1">
         <v>4.16</v>
       </c>
-      <c r="T522" s="1">
+      <c r="T522" s="42">
         <v>19.079999999999998</v>
       </c>
-      <c r="U522" s="2">
+      <c r="U522" s="43">
         <v>3.58</v>
       </c>
     </row>
     <row r="523" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A523" s="15"/>
-      <c r="B523" s="1">
+      <c r="B523" s="42">
         <v>20.440000000000001</v>
       </c>
-      <c r="C523" s="1">
+      <c r="C523" s="42">
         <v>4.6399999999999997</v>
       </c>
-      <c r="D523" s="1">
+      <c r="D523" s="42">
         <v>18.97</v>
       </c>
-      <c r="E523" s="1">
+      <c r="E523" s="42">
         <v>3.98</v>
       </c>
       <c r="F523" s="1"/>
@@ -19169,39 +19219,39 @@
       <c r="M523" s="1">
         <v>4.1399999999999997</v>
       </c>
-      <c r="N523" s="1">
+      <c r="N523" s="42">
         <v>20.78</v>
       </c>
-      <c r="O523" s="1">
+      <c r="O523" s="42">
         <v>4.2699999999999996</v>
       </c>
-      <c r="P523" s="1">
+      <c r="P523" s="42">
         <v>19.84</v>
       </c>
-      <c r="Q523" s="1">
+      <c r="Q523" s="42">
         <v>4.33</v>
       </c>
       <c r="R523" s="1"/>
       <c r="S523" s="1"/>
-      <c r="T523" s="1">
+      <c r="T523" s="42">
         <v>19.07</v>
       </c>
-      <c r="U523" s="2">
+      <c r="U523" s="43">
         <v>3.6</v>
       </c>
     </row>
     <row r="524" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A524" s="15"/>
-      <c r="B524" s="1">
+      <c r="B524" s="42">
         <v>20.8</v>
       </c>
-      <c r="C524" s="1">
+      <c r="C524" s="42">
         <v>4.9400000000000004</v>
       </c>
-      <c r="D524" s="1">
+      <c r="D524" s="42">
         <v>20.36</v>
       </c>
-      <c r="E524" s="1">
+      <c r="E524" s="42">
         <v>4.6100000000000003</v>
       </c>
       <c r="F524" s="1"/>
@@ -19224,39 +19274,39 @@
       <c r="M524" s="1">
         <v>3.34</v>
       </c>
-      <c r="N524" s="1">
+      <c r="N524" s="42">
         <v>20.36</v>
       </c>
-      <c r="O524" s="1">
+      <c r="O524" s="42">
         <v>4.5199999999999996</v>
       </c>
-      <c r="P524" s="1">
+      <c r="P524" s="42">
         <v>20.41</v>
       </c>
-      <c r="Q524" s="1">
+      <c r="Q524" s="42">
         <v>4.33</v>
       </c>
       <c r="R524" s="1"/>
       <c r="S524" s="1"/>
-      <c r="T524" s="1">
+      <c r="T524" s="42">
         <v>19.93</v>
       </c>
-      <c r="U524" s="2">
+      <c r="U524" s="43">
         <v>3.63</v>
       </c>
     </row>
     <row r="525" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A525" s="15"/>
-      <c r="B525" s="1">
+      <c r="B525" s="42">
         <v>21.11</v>
       </c>
-      <c r="C525" s="1">
+      <c r="C525" s="42">
         <v>4.91</v>
       </c>
-      <c r="D525" s="1">
+      <c r="D525" s="42">
         <v>20.36</v>
       </c>
-      <c r="E525" s="1">
+      <c r="E525" s="42">
         <v>4.53</v>
       </c>
       <c r="F525" s="1"/>
@@ -19281,33 +19331,33 @@
       </c>
       <c r="N525" s="1"/>
       <c r="O525" s="1"/>
-      <c r="P525" s="1">
+      <c r="P525" s="42">
         <v>20.97</v>
       </c>
-      <c r="Q525" s="1">
+      <c r="Q525" s="42">
         <v>4.62</v>
       </c>
       <c r="R525" s="1"/>
       <c r="S525" s="1"/>
-      <c r="T525" s="1">
+      <c r="T525" s="42">
         <v>20</v>
       </c>
-      <c r="U525" s="2">
+      <c r="U525" s="43">
         <v>3.2</v>
       </c>
     </row>
     <row r="526" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A526" s="15"/>
-      <c r="B526" s="1">
+      <c r="B526" s="42">
         <v>20.45</v>
       </c>
-      <c r="C526" s="1">
+      <c r="C526" s="42">
         <v>4.3899999999999997</v>
       </c>
-      <c r="D526" s="1">
+      <c r="D526" s="42">
         <v>21.12</v>
       </c>
-      <c r="E526" s="1">
+      <c r="E526" s="42">
         <v>4.46</v>
       </c>
       <c r="F526" s="1"/>
@@ -19332,33 +19382,33 @@
       </c>
       <c r="N526" s="1"/>
       <c r="O526" s="1"/>
-      <c r="P526" s="1">
+      <c r="P526" s="42">
         <v>20.5</v>
       </c>
-      <c r="Q526" s="1">
+      <c r="Q526" s="42">
         <v>3.89</v>
       </c>
       <c r="R526" s="1"/>
       <c r="S526" s="1"/>
-      <c r="T526" s="1">
+      <c r="T526" s="42">
         <v>18.170000000000002</v>
       </c>
-      <c r="U526" s="2">
+      <c r="U526" s="43">
         <v>3.08</v>
       </c>
     </row>
     <row r="527" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A527" s="15"/>
-      <c r="B527" s="1">
+      <c r="B527" s="42">
         <v>21.08</v>
       </c>
-      <c r="C527" s="1">
+      <c r="C527" s="42">
         <v>4.8099999999999996</v>
       </c>
-      <c r="D527" s="1">
+      <c r="D527" s="42">
         <v>20.399999999999999</v>
       </c>
-      <c r="E527" s="1">
+      <c r="E527" s="42">
         <v>4.7300000000000004</v>
       </c>
       <c r="F527" s="1"/>
@@ -19379,33 +19429,33 @@
       </c>
       <c r="N527" s="1"/>
       <c r="O527" s="1"/>
-      <c r="P527" s="1">
+      <c r="P527" s="42">
         <v>19.57</v>
       </c>
-      <c r="Q527" s="1">
+      <c r="Q527" s="42">
         <v>4.26</v>
       </c>
       <c r="R527" s="1"/>
       <c r="S527" s="1"/>
-      <c r="T527" s="1">
+      <c r="T527" s="42">
         <v>18.420000000000002</v>
       </c>
-      <c r="U527" s="2">
+      <c r="U527" s="43">
         <v>3.14</v>
       </c>
     </row>
     <row r="528" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A528" s="15"/>
-      <c r="B528" s="1">
+      <c r="B528" s="42">
         <v>21.01</v>
       </c>
-      <c r="C528" s="1">
+      <c r="C528" s="42">
         <v>4.47</v>
       </c>
-      <c r="D528" s="1">
+      <c r="D528" s="42">
         <v>20.399999999999999</v>
       </c>
-      <c r="E528" s="1">
+      <c r="E528" s="42">
         <v>4.22</v>
       </c>
       <c r="F528" s="1"/>
@@ -19426,33 +19476,33 @@
       </c>
       <c r="N528" s="1"/>
       <c r="O528" s="1"/>
-      <c r="P528" s="1">
+      <c r="P528" s="42">
         <v>20.2</v>
       </c>
-      <c r="Q528" s="1">
+      <c r="Q528" s="42">
         <v>4.04</v>
       </c>
       <c r="R528" s="1"/>
       <c r="S528" s="1"/>
-      <c r="T528" s="1">
+      <c r="T528" s="42">
         <v>19.100000000000001</v>
       </c>
-      <c r="U528" s="2">
+      <c r="U528" s="43">
         <v>3.66</v>
       </c>
     </row>
     <row r="529" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A529" s="15"/>
-      <c r="B529" s="1">
+      <c r="B529" s="42">
         <v>21.02</v>
       </c>
-      <c r="C529" s="1">
+      <c r="C529" s="42">
         <v>5.43</v>
       </c>
-      <c r="D529" s="1">
+      <c r="D529" s="42">
         <v>21.07</v>
       </c>
-      <c r="E529" s="1">
+      <c r="E529" s="42">
         <v>4.62</v>
       </c>
       <c r="F529" s="1"/>
@@ -19473,19 +19523,19 @@
       <c r="Q529" s="1"/>
       <c r="R529" s="1"/>
       <c r="S529" s="1"/>
-      <c r="T529" s="1">
+      <c r="T529" s="42">
         <v>19.350000000000001</v>
       </c>
-      <c r="U529" s="2">
+      <c r="U529" s="43">
         <v>3.37</v>
       </c>
     </row>
     <row r="530" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A530" s="15"/>
-      <c r="B530" s="1">
+      <c r="B530" s="42">
         <v>21.82</v>
       </c>
-      <c r="C530" s="1">
+      <c r="C530" s="42">
         <v>5.28</v>
       </c>
       <c r="D530" s="1"/>
@@ -19508,19 +19558,19 @@
       <c r="Q530" s="1"/>
       <c r="R530" s="1"/>
       <c r="S530" s="1"/>
-      <c r="T530" s="1">
+      <c r="T530" s="42">
         <v>18.89</v>
       </c>
-      <c r="U530" s="2">
+      <c r="U530" s="43">
         <v>3.36</v>
       </c>
     </row>
     <row r="531" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A531" s="15"/>
-      <c r="B531" s="1">
+      <c r="B531" s="42">
         <v>20.91</v>
       </c>
-      <c r="C531" s="1">
+      <c r="C531" s="42">
         <v>5.21</v>
       </c>
       <c r="D531" s="1"/>
@@ -19543,19 +19593,19 @@
       <c r="Q531" s="1"/>
       <c r="R531" s="1"/>
       <c r="S531" s="1"/>
-      <c r="T531" s="1">
+      <c r="T531" s="42">
         <v>19.09</v>
       </c>
-      <c r="U531" s="2">
+      <c r="U531" s="43">
         <v>3.51</v>
       </c>
     </row>
     <row r="532" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A532" s="15"/>
-      <c r="B532" s="1">
+      <c r="B532" s="42">
         <v>21.05</v>
       </c>
-      <c r="C532" s="1">
+      <c r="C532" s="42">
         <v>5.41</v>
       </c>
       <c r="D532" s="1"/>
